--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\joh\Joh\07 Dev\OED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA16F4F-4325-4B39-AD4C-0AF24D71FF8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C6BD3-C388-4D7B-B487-4BF4FF49DCCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="5220" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3622,26 +3622,26 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>930</v>
       </c>
@@ -3655,12 +3655,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>926</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11" s="18" t="s">
         <v>1</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F12" s="18" t="s">
         <v>2</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F13" s="18" t="s">
         <v>911</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F14" s="18" t="s">
         <v>912</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
         <v>979</v>
       </c>
@@ -3733,20 +3733,20 @@
   <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D200" sqref="D200:D203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -5305,10 +5305,10 @@
         <v>229</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -5319,10 +5319,10 @@
         <v>231</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -5333,10 +5333,10 @@
         <v>233</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -5347,10 +5347,10 @@
         <v>235</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>7</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>7</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>7</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>7</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>7</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>7</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>7</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>7</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>7</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>7</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>7</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>7</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>7</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>442</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>442</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>442</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>442</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>442</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>442</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>442</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>442</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>442</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>442</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>442</v>
       </c>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="D232" s="16"/>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>442</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>442</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>442</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>442</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>442</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>442</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>442</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>442</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>442</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>442</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>442</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>442</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>442</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>442</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>442</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>442</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>442</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>442</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="49.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="49.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>442</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>442</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>442</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>442</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>442</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>442</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>442</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>442</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>442</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>442</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>442</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>442</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>442</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>442</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>442</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>442</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>442</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>442</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>442</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>442</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>442</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>442</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>442</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>442</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>442</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>442</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>442</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>442</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>442</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>442</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>442</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>442</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>442</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>442</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>442</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>442</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>442</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>442</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>442</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>442</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>442</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>442</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>442</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>442</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>442</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>442</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>442</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>442</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>442</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>442</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>442</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>442</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>442</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>442</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>442</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>442</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>442</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>442</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>442</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>442</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>442</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>442</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>442</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>442</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>442</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>442</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>442</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>442</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>442</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>442</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>442</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>442</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>442</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>442</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>442</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>442</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>442</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>442</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>442</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>442</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>442</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>442</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>442</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>442</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>442</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>442</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>442</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>442</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>442</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>442</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>442</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>442</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>442</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>442</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>442</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>442</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>442</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>442</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>442</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>442</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>442</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>442</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>442</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>442</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>442</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>442</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="42.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>442</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>442</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="36.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>442</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>442</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>442</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>442</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>442</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>442</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>442</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>442</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>442</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>442</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>442</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="46.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>442</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>442</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>442</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>442</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>442</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>442</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>442</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>442</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>442</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>442</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>442</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>442</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>442</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>442</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>442</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>442</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>442</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>442</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>442</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>442</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>442</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>442</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>442</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>442</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>442</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>442</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>442</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>442</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>442</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>442</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="59.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="59.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>442</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>442</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>442</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>442</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>442</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>442</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>442</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>442</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>442</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>442</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>442</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>442</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>442</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>442</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>442</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>442</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>442</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>442</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>442</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>442</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>442</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>442</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>442</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>442</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>835</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>835</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>835</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>835</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>835</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>835</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>835</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>835</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>835</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
         <v>835</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>835</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>835</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>835</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>835</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>835</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>835</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>835</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>835</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>835</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>835</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>835</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>835</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="446" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>835</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>835</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>835</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>835</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>835</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>835</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>892</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>892</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>892</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>892</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>892</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>892</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>892</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>892</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>892</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>892</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>892</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>892</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>892</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>442</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -10096,49 +10096,49 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>935</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>934</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>936</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>937</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>938</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>939</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>940</v>
       </c>
@@ -10257,22 +10257,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
         <v>964</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>4</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>5</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>6</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9</v>
       </c>
@@ -10382,37 +10382,37 @@
         <v>953</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>935</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>969</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>968</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>972</v>
       </c>
@@ -10453,12 +10453,12 @@
         <v>971</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>998</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>993</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>997</v>
       </c>

--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_docs\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joh\dev\OasisLMF_backallocation2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792910A-481F-4300-B4DA-38FB0A912FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55032CE-ED11-4615-924C-250D5815B582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1001">
   <si>
     <t>File Name</t>
   </si>
@@ -3095,7 +3095,10 @@
     <t>2.0.0</t>
   </si>
   <si>
-    <t>v1.23 and later</t>
+    <t>v1.26</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -3628,23 +3631,23 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="1.2">
       <c r="B2" s="17" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B6" s="18" t="s">
         <v>925</v>
       </c>
@@ -3658,12 +3661,12 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B8" s="24" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B9" s="25" t="s">
         <v>922</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F11" s="18" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F12" s="18" t="s">
         <v>2</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F13" s="18" t="s">
         <v>908</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F14" s="18" t="s">
         <v>909</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B16" s="25" t="s">
         <v>973</v>
       </c>
@@ -3736,20 +3739,20 @@
   <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E464" sqref="E464"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.6796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +3856,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -4958,10 +4961,10 @@
         <v>179</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -4972,10 +4975,10 @@
         <v>181</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -4986,10 +4989,10 @@
         <v>183</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -5000,10 +5003,10 @@
         <v>185</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5028,10 +5031,10 @@
         <v>189</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5042,10 +5045,10 @@
         <v>191</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5056,10 +5059,10 @@
         <v>193</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5070,10 +5073,10 @@
         <v>195</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5098,10 +5101,10 @@
         <v>199</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5112,10 +5115,10 @@
         <v>201</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5126,10 +5129,10 @@
         <v>203</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5140,10 +5143,10 @@
         <v>205</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5168,10 +5171,10 @@
         <v>209</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5182,10 +5185,10 @@
         <v>211</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,10 +5199,10 @@
         <v>213</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5210,10 +5213,10 @@
         <v>215</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5238,10 +5241,10 @@
         <v>219</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5252,10 +5255,10 @@
         <v>221</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5266,10 +5269,10 @@
         <v>223</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5280,10 +5283,10 @@
         <v>225</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5314,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -5378,10 +5381,10 @@
         <v>239</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -5392,10 +5395,10 @@
         <v>241</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -5420,10 +5423,10 @@
         <v>245</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -5434,10 +5437,10 @@
         <v>247</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -5462,10 +5465,10 @@
         <v>251</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -5476,10 +5479,10 @@
         <v>253</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -5504,10 +5507,10 @@
         <v>257</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -5518,10 +5521,10 @@
         <v>259</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -5546,10 +5549,10 @@
         <v>263</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -5560,10 +5563,10 @@
         <v>265</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A133" s="4" t="s">
         <v>7</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5636,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A138" s="4" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A139" s="4" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A141" s="4" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A143" s="4" t="s">
         <v>7</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A145" s="4" t="s">
         <v>7</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A152" s="4" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A154" s="4" t="s">
         <v>7</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A157" s="4" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="59" x14ac:dyDescent="0.75">
       <c r="A160" s="4" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -6022,7 +6025,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A171" s="4" t="s">
         <v>7</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -6175,10 +6178,10 @@
         <v>347</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6189,10 +6192,10 @@
         <v>349</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6203,10 +6206,10 @@
         <v>351</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6217,10 +6220,10 @@
         <v>353</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6245,10 +6248,10 @@
         <v>357</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6259,10 +6262,10 @@
         <v>359</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6273,10 +6276,10 @@
         <v>361</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6287,10 +6290,10 @@
         <v>363</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6315,10 +6318,10 @@
         <v>367</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6329,10 +6332,10 @@
         <v>369</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6343,10 +6346,10 @@
         <v>371</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6357,10 +6360,10 @@
         <v>373</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6385,10 +6388,10 @@
         <v>377</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6399,10 +6402,10 @@
         <v>379</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6413,10 +6416,10 @@
         <v>381</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6427,10 +6430,10 @@
         <v>383</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6455,10 +6458,10 @@
         <v>387</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6469,10 +6472,10 @@
         <v>389</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6483,10 +6486,10 @@
         <v>391</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6497,10 +6500,10 @@
         <v>393</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A202" s="4" t="s">
         <v>7</v>
       </c>
@@ -6545,7 +6548,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A203" s="4" t="s">
         <v>7</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -6604,10 +6607,10 @@
         <v>407</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -6618,10 +6621,10 @@
         <v>409</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -6646,10 +6649,10 @@
         <v>413</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -6660,10 +6663,10 @@
         <v>415</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -6677,7 +6680,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -6688,10 +6691,10 @@
         <v>419</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -6702,10 +6705,10 @@
         <v>421</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -6730,10 +6733,10 @@
         <v>425</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -6744,10 +6747,10 @@
         <v>427</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6772,10 +6775,10 @@
         <v>431</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6786,10 +6789,10 @@
         <v>433</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -6834,7 +6837,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A223" s="4" t="s">
         <v>440</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A224" s="4" t="s">
         <v>440</v>
       </c>
@@ -6856,7 +6859,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A225" s="4" t="s">
         <v>440</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A226" s="4" t="s">
         <v>440</v>
       </c>
@@ -6878,7 +6881,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A227" s="4" t="s">
         <v>440</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A228" s="4" t="s">
         <v>440</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A229" s="4" t="s">
         <v>440</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A230" s="4" t="s">
         <v>440</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A231" s="4" t="s">
         <v>440</v>
       </c>
@@ -6933,7 +6936,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A232" s="4" t="s">
         <v>440</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A233" s="6" t="s">
         <v>440</v>
       </c>
@@ -6956,7 +6959,7 @@
       </c>
       <c r="D233" s="16"/>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A234" s="4" t="s">
         <v>440</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A235" s="4" t="s">
         <v>440</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A236" s="4" t="s">
         <v>440</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A237" s="4" t="s">
         <v>440</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A238" s="4" t="s">
         <v>440</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A239" s="4" t="s">
         <v>440</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A240" s="4" t="s">
         <v>440</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A241" s="4" t="s">
         <v>440</v>
       </c>
@@ -7044,7 +7047,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A242" s="4" t="s">
         <v>440</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A243" s="4" t="s">
         <v>440</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A244" s="4" t="s">
         <v>440</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A245" s="4" t="s">
         <v>440</v>
       </c>
@@ -7088,7 +7091,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A246" s="4" t="s">
         <v>440</v>
       </c>
@@ -7099,7 +7102,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A247" s="4" t="s">
         <v>440</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A248" s="4" t="s">
         <v>440</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A249" s="4" t="s">
         <v>440</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A250" s="4" t="s">
         <v>440</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A251" s="4" t="s">
         <v>440</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A252" s="4" t="s">
         <v>440</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A253" s="4" t="s">
         <v>440</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A254" s="4" t="s">
         <v>440</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A255" s="4" t="s">
         <v>440</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A256" s="4" t="s">
         <v>440</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A257" s="4" t="s">
         <v>440</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A258" s="4" t="s">
         <v>440</v>
       </c>
@@ -7231,7 +7234,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A259" s="4" t="s">
         <v>440</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A260" s="4" t="s">
         <v>440</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A261" s="4" t="s">
         <v>440</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A262" s="4" t="s">
         <v>440</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A263" s="4" t="s">
         <v>440</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A264" s="4" t="s">
         <v>440</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A265" s="4" t="s">
         <v>440</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A266" s="4" t="s">
         <v>440</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A267" s="4" t="s">
         <v>440</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A268" s="4" t="s">
         <v>440</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A269" s="4" t="s">
         <v>440</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A270" s="6" t="s">
         <v>440</v>
       </c>
@@ -7363,7 +7366,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A271" s="6" t="s">
         <v>440</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A272" s="4" t="s">
         <v>440</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A273" s="4" t="s">
         <v>440</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A274" s="4" t="s">
         <v>440</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A275" s="4" t="s">
         <v>440</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A276" s="4" t="s">
         <v>440</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A278" s="4" t="s">
         <v>440</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A279" s="6" t="s">
         <v>440</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A280" s="6" t="s">
         <v>440</v>
       </c>
@@ -7512,7 +7515,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A281" s="6" t="s">
         <v>440</v>
       </c>
@@ -7526,7 +7529,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A282" s="6" t="s">
         <v>440</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A283" s="6" t="s">
         <v>440</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A284" s="6" t="s">
         <v>440</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A285" s="6" t="s">
         <v>440</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A286" s="4" t="s">
         <v>440</v>
       </c>
@@ -7593,7 +7596,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A287" s="4" t="s">
         <v>440</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A288" s="4" t="s">
         <v>440</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A289" s="4" t="s">
         <v>440</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A290" s="4" t="s">
         <v>440</v>
       </c>
@@ -7649,7 +7652,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A291" s="4" t="s">
         <v>440</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A292" s="4" t="s">
         <v>440</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A293" s="4" t="s">
         <v>440</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A294" s="4" t="s">
         <v>440</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A295" s="4" t="s">
         <v>440</v>
       </c>
@@ -7719,7 +7722,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A296" s="4" t="s">
         <v>440</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -7747,7 +7750,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A298" s="4" t="s">
         <v>440</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A299" s="4" t="s">
         <v>440</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A300" s="4" t="s">
         <v>440</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A301" s="4" t="s">
         <v>440</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A302" s="4" t="s">
         <v>440</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A303" s="4" t="s">
         <v>440</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A304" s="4" t="s">
         <v>440</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A305" s="4" t="s">
         <v>440</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A306" s="4" t="s">
         <v>440</v>
       </c>
@@ -7873,7 +7876,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A307" s="4" t="s">
         <v>440</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A308" s="4" t="s">
         <v>440</v>
       </c>
@@ -7901,7 +7904,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A309" s="4" t="s">
         <v>440</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A310" s="4" t="s">
         <v>440</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A311" s="4" t="s">
         <v>440</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A312" s="4" t="s">
         <v>440</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A313" s="4" t="s">
         <v>440</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A314" s="4" t="s">
         <v>440</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A315" s="4" t="s">
         <v>440</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A316" s="4" t="s">
         <v>440</v>
       </c>
@@ -8013,7 +8016,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A317" s="4" t="s">
         <v>440</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A319" s="4" t="s">
         <v>440</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A320" s="4" t="s">
         <v>440</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A321" s="4" t="s">
         <v>440</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A322" s="4" t="s">
         <v>440</v>
       </c>
@@ -8097,7 +8100,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A323" s="4" t="s">
         <v>440</v>
       </c>
@@ -8111,7 +8114,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A324" s="4" t="s">
         <v>440</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A325" s="4" t="s">
         <v>440</v>
       </c>
@@ -8139,7 +8142,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A326" s="4" t="s">
         <v>440</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A327" s="4" t="s">
         <v>440</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A328" s="4" t="s">
         <v>440</v>
       </c>
@@ -8181,7 +8184,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A329" s="4" t="s">
         <v>440</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A330" s="4" t="s">
         <v>440</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A331" s="4" t="s">
         <v>440</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A332" s="4" t="s">
         <v>440</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A333" s="4" t="s">
         <v>440</v>
       </c>
@@ -8251,7 +8254,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A334" s="4" t="s">
         <v>440</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A335" s="4" t="s">
         <v>440</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A336" s="6" t="s">
         <v>440</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A337" s="4" t="s">
         <v>440</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A338" s="4" t="s">
         <v>440</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A339" s="4" t="s">
         <v>440</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A340" s="4" t="s">
         <v>440</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A341" s="4" t="s">
         <v>440</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A342" s="4" t="s">
         <v>440</v>
       </c>
@@ -8362,7 +8365,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A343" s="4" t="s">
         <v>440</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A344" s="4" t="s">
         <v>440</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A345" s="4" t="s">
         <v>440</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A346" s="4" t="s">
         <v>440</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A347" s="4" t="s">
         <v>440</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A348" s="4" t="s">
         <v>440</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A349" s="6" t="s">
         <v>440</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A350" s="6" t="s">
         <v>440</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A351" s="6" t="s">
         <v>440</v>
       </c>
@@ -8461,7 +8464,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A352" s="6" t="s">
         <v>440</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A353" s="4" t="s">
         <v>440</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A354" s="4" t="s">
         <v>440</v>
       </c>
@@ -8494,7 +8497,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A355" s="4" t="s">
         <v>440</v>
       </c>
@@ -8505,7 +8508,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A356" s="4" t="s">
         <v>440</v>
       </c>
@@ -8516,7 +8519,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A357" s="4" t="s">
         <v>440</v>
       </c>
@@ -8527,7 +8530,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A358" s="4" t="s">
         <v>440</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A359" s="4" t="s">
         <v>440</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A360" s="4" t="s">
         <v>440</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A361" s="4" t="s">
         <v>440</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A362" s="4" t="s">
         <v>440</v>
       </c>
@@ -8582,7 +8585,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A363" s="4" t="s">
         <v>440</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A364" s="4" t="s">
         <v>440</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A365" s="4" t="s">
         <v>440</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A366" s="4" t="s">
         <v>440</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A367" s="4" t="s">
         <v>440</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A368" s="4" t="s">
         <v>440</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A369" s="4" t="s">
         <v>440</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A370" s="4" t="s">
         <v>440</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A371" s="4" t="s">
         <v>440</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A372" s="4" t="s">
         <v>440</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A373" s="4" t="s">
         <v>440</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A374" s="4" t="s">
         <v>440</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A375" s="4" t="s">
         <v>440</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A376" s="4" t="s">
         <v>440</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A377" s="4" t="s">
         <v>440</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A378" s="4" t="s">
         <v>440</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A379" s="4" t="s">
         <v>440</v>
       </c>
@@ -8769,7 +8772,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A380" s="4" t="s">
         <v>440</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A381" s="4" t="s">
         <v>440</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A382" s="4" t="s">
         <v>440</v>
       </c>
@@ -8802,7 +8805,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -8813,7 +8816,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A384" s="4" t="s">
         <v>440</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A385" s="6" t="s">
         <v>440</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A386" s="4" t="s">
         <v>440</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A387" s="4" t="s">
         <v>440</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A388" s="4" t="s">
         <v>440</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A389" s="4" t="s">
         <v>440</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A390" s="4" t="s">
         <v>440</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A391" s="4" t="s">
         <v>440</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A392" s="4" t="s">
         <v>440</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A393" s="4" t="s">
         <v>440</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A394" s="4" t="s">
         <v>440</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A395" s="4" t="s">
         <v>440</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A396" s="4" t="s">
         <v>440</v>
       </c>
@@ -8956,7 +8959,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A397" s="4" t="s">
         <v>440</v>
       </c>
@@ -8967,7 +8970,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A398" s="4" t="s">
         <v>440</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A399" s="4" t="s">
         <v>440</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A400" s="4" t="s">
         <v>440</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A401" s="6" t="s">
         <v>440</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A402" s="4" t="s">
         <v>440</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A403" s="4" t="s">
         <v>440</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A404" s="4" t="s">
         <v>440</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A406" s="4" t="s">
         <v>440</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A407" s="4" t="s">
         <v>440</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A408" s="4" t="s">
         <v>440</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A409" s="4" t="s">
         <v>440</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A410" s="4" t="s">
         <v>440</v>
       </c>
@@ -9110,7 +9113,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A411" s="4" t="s">
         <v>440</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A412" s="4" t="s">
         <v>440</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A413" s="6" t="s">
         <v>440</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A414" s="6" t="s">
         <v>440</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A415" s="6" t="s">
         <v>440</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A416" s="6" t="s">
         <v>440</v>
       </c>
@@ -9176,7 +9179,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A417" s="6" t="s">
         <v>440</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A418" s="6" t="s">
         <v>440</v>
       </c>
@@ -9198,7 +9201,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A419" s="6" t="s">
         <v>440</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A420" s="6" t="s">
         <v>440</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
@@ -9231,7 +9234,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A422" s="4" t="s">
         <v>440</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A423" s="4" t="s">
         <v>440</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A424" s="6" t="s">
         <v>832</v>
       </c>
@@ -9267,7 +9270,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A425" s="4" t="s">
         <v>832</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A426" s="4" t="s">
         <v>832</v>
       </c>
@@ -9295,7 +9298,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A427" s="4" t="s">
         <v>832</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A428" s="4" t="s">
         <v>832</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A429" s="4" t="s">
         <v>832</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A430" s="4" t="s">
         <v>832</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A431" s="4" t="s">
         <v>832</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A432" s="4" t="s">
         <v>832</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A433" s="4" t="s">
         <v>832</v>
       </c>
@@ -9399,7 +9402,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A434" s="4" t="s">
         <v>832</v>
       </c>
@@ -9416,7 +9419,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A435" s="4" t="s">
         <v>832</v>
       </c>
@@ -9430,7 +9433,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A436" s="4" t="s">
         <v>832</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A438" s="4" t="s">
         <v>832</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A439" s="4" t="s">
         <v>832</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="60.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A440" s="4" t="s">
         <v>832</v>
       </c>
@@ -9500,7 +9503,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A441" s="4" t="s">
         <v>832</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A442" s="4" t="s">
         <v>832</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A443" s="4" t="s">
         <v>832</v>
       </c>
@@ -9545,7 +9548,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A444" s="4" t="s">
         <v>832</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A445" s="4" t="s">
         <v>832</v>
       </c>
@@ -9573,7 +9576,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="446" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" s="9" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A446" s="6" t="s">
         <v>832</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A447" s="4" t="s">
         <v>832</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A448" s="4" t="s">
         <v>832</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A449" s="4" t="s">
         <v>832</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A450" s="4" t="s">
         <v>832</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A451" s="4" t="s">
         <v>832</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A452" s="6" t="s">
         <v>889</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A453" s="6" t="s">
         <v>889</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A454" s="6" t="s">
         <v>889</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A455" s="6" t="s">
         <v>889</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A456" s="6" t="s">
         <v>889</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A457" s="6" t="s">
         <v>889</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A458" s="6" t="s">
         <v>889</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A459" s="6" t="s">
         <v>889</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A460" s="6" t="s">
         <v>889</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="23.7" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A461" s="6" t="s">
         <v>889</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A462" s="6" t="s">
         <v>889</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A463" s="6" t="s">
         <v>889</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A464" s="6" t="s">
         <v>832</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A465" s="4" t="s">
         <v>440</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -10096,52 +10099,52 @@
   <dimension ref="B2:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" customWidth="1"/>
+    <col min="5" max="5" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:6" ht="26" x14ac:dyDescent="1.2">
       <c r="B2" s="17" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="1.2">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
       <c r="B4" s="21" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B11" s="1" t="s">
         <v>929</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>928</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>930</v>
       </c>
@@ -10192,7 +10195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>931</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>932</v>
       </c>
@@ -10222,11 +10225,11 @@
       <c r="E15" t="s">
         <v>951</v>
       </c>
-      <c r="F15" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="20" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>933</v>
       </c>
@@ -10239,11 +10242,11 @@
       <c r="E16" t="s">
         <v>952</v>
       </c>
-      <c r="F16" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="20" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>934</v>
       </c>
@@ -10260,22 +10263,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
       <c r="B19" s="21" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B22" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B24" s="22" t="s">
         <v>958</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B25">
         <v>1</v>
       </c>
@@ -10297,7 +10300,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B26">
         <v>2</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B27">
         <v>3</v>
       </c>
@@ -10319,7 +10322,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B28">
         <v>4</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B29">
         <v>5</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B30">
         <v>6</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B31">
         <v>7</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B32">
         <v>8</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B33">
         <v>9</v>
       </c>
@@ -10385,37 +10388,37 @@
         <v>947</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B35" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B36" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B38" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B39" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B42" s="1" t="s">
         <v>929</v>
       </c>
@@ -10426,7 +10429,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B43" t="s">
         <v>963</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B44" t="s">
         <v>962</v>
       </c>
@@ -10445,7 +10448,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B45" t="s">
         <v>966</v>
       </c>
@@ -10456,12 +10459,12 @@
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" ht="18.5" x14ac:dyDescent="0.9">
       <c r="B48" s="21" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.75">
       <c r="B49" t="s">
         <v>991</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.75">
       <c r="B50" t="s">
         <v>986</v>
       </c>
@@ -10477,7 +10480,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.75">
       <c r="B51" t="s">
         <v>990</v>
       </c>

--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joh\dev\OasisLMF_backallocation2\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_backallocation2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55032CE-ED11-4615-924C-250D5815B582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BD5F59-DB1F-499E-B7EB-3A613DE845D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1000">
   <si>
     <t>File Name</t>
   </si>
@@ -3096,9 +3096,6 @@
   </si>
   <si>
     <t>v1.26</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
   </si>
 </sst>
 </file>
@@ -3628,7 +3625,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3739,8 +3736,8 @@
   <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6192,7 +6189,7 @@
         <v>349</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.75">
@@ -6206,7 +6203,7 @@
         <v>351</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.75">
@@ -6220,7 +6217,7 @@
         <v>353</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.75">
@@ -6248,7 +6245,7 @@
         <v>357</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.75">
@@ -6262,7 +6259,7 @@
         <v>359</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.75">
@@ -6276,7 +6273,7 @@
         <v>361</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.75">
@@ -6290,7 +6287,7 @@
         <v>363</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.75">
@@ -6318,7 +6315,7 @@
         <v>367</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.75">
@@ -6332,7 +6329,7 @@
         <v>369</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.75">
@@ -6346,7 +6343,7 @@
         <v>371</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.75">
@@ -6360,7 +6357,7 @@
         <v>373</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.75">
@@ -6388,7 +6385,7 @@
         <v>377</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.75">
@@ -6402,7 +6399,7 @@
         <v>379</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.75">
@@ -6416,7 +6413,7 @@
         <v>381</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.75">
@@ -6430,7 +6427,7 @@
         <v>383</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.75">
@@ -6458,7 +6455,7 @@
         <v>387</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.75">
@@ -6472,7 +6469,7 @@
         <v>389</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.75">
@@ -6486,7 +6483,7 @@
         <v>391</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.75">
@@ -6500,7 +6497,7 @@
         <v>393</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.75">
@@ -6607,7 +6604,7 @@
         <v>407</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.75">
@@ -6621,7 +6618,7 @@
         <v>409</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.75">
@@ -6649,7 +6646,7 @@
         <v>413</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.75">
@@ -6663,7 +6660,7 @@
         <v>415</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.75">
@@ -6691,7 +6688,7 @@
         <v>419</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.75">
@@ -6705,7 +6702,7 @@
         <v>421</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.75">
@@ -6733,7 +6730,7 @@
         <v>425</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.75">
@@ -6747,7 +6744,7 @@
         <v>427</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.75">
@@ -6775,7 +6772,7 @@
         <v>431</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.75">
@@ -6789,7 +6786,7 @@
         <v>433</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.75">
@@ -10096,10 +10093,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:F51"/>
+  <dimension ref="B2:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10225,8 +10222,8 @@
       <c r="E15" t="s">
         <v>951</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>1000</v>
+      <c r="F15" s="20">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.75">
@@ -10243,248 +10240,282 @@
         <v>952</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>1000</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" t="s">
+        <v>937</v>
+      </c>
+      <c r="E17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B18" t="s">
+        <v>933</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>937</v>
+      </c>
+      <c r="E18" t="s">
+        <v>952</v>
+      </c>
+      <c r="F18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B19" t="s">
+        <v>934</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>938</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>953</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F19" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="B19" s="21" t="s">
+    <row r="21" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B21" s="21" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B21" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B23" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B22" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B24" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B24" s="22" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B26" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B35" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B36" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B37" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B39" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B41" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B42" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B44" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>936</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B43" t="s">
-        <v>963</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B44" t="s">
-        <v>962</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B45" t="s">
+        <v>963</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B46" t="s">
+        <v>962</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B47" t="s">
         <v>966</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="B48" s="21" t="s">
+    <row r="50" spans="2:3" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B50" s="21" t="s">
         <v>985</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.75">
-      <c r="B49" t="s">
-        <v>991</v>
-      </c>
-      <c r="C49" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.75">
-      <c r="B50" t="s">
-        <v>986</v>
-      </c>
-      <c r="C50" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.75">
       <c r="B51" t="s">
+        <v>991</v>
+      </c>
+      <c r="C51" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.75">
+      <c r="B52" t="s">
+        <v>986</v>
+      </c>
+      <c r="C52" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.75">
+      <c r="B53" t="s">
         <v>990</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>989</v>
       </c>
     </row>

--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_docs\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_backallocation2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792910A-481F-4300-B4DA-38FB0A912FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BD5F59-DB1F-499E-B7EB-3A613DE845D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1000">
   <si>
     <t>File Name</t>
   </si>
@@ -3095,7 +3095,7 @@
     <t>2.0.0</t>
   </si>
   <si>
-    <t>v1.23 and later</t>
+    <t>v1.26</t>
   </si>
 </sst>
 </file>
@@ -3625,26 +3625,26 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="1.2">
       <c r="B2" s="17" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B6" s="18" t="s">
         <v>925</v>
       </c>
@@ -3658,12 +3658,12 @@
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B8" s="24" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B9" s="25" t="s">
         <v>922</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F10" s="18" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F11" s="18" t="s">
         <v>1</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F12" s="18" t="s">
         <v>2</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F13" s="18" t="s">
         <v>908</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.75">
       <c r="F14" s="18" t="s">
         <v>909</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B16" s="25" t="s">
         <v>973</v>
       </c>
@@ -3736,20 +3736,20 @@
   <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E464" sqref="E464"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.6796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -4958,10 +4958,10 @@
         <v>179</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -4972,10 +4972,10 @@
         <v>181</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -4986,10 +4986,10 @@
         <v>183</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -5000,10 +5000,10 @@
         <v>185</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5028,10 +5028,10 @@
         <v>189</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5042,10 +5042,10 @@
         <v>191</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5056,10 +5056,10 @@
         <v>193</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5070,10 +5070,10 @@
         <v>195</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5098,10 +5098,10 @@
         <v>199</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5112,10 +5112,10 @@
         <v>201</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5126,10 +5126,10 @@
         <v>203</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5140,10 +5140,10 @@
         <v>205</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5168,10 +5168,10 @@
         <v>209</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5182,10 +5182,10 @@
         <v>211</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,10 +5196,10 @@
         <v>213</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5210,10 +5210,10 @@
         <v>215</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5238,10 +5238,10 @@
         <v>219</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5252,10 +5252,10 @@
         <v>221</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5266,10 +5266,10 @@
         <v>223</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5280,10 +5280,10 @@
         <v>225</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -5378,10 +5378,10 @@
         <v>239</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -5392,10 +5392,10 @@
         <v>241</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -5420,10 +5420,10 @@
         <v>245</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -5434,10 +5434,10 @@
         <v>247</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -5462,10 +5462,10 @@
         <v>251</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -5476,10 +5476,10 @@
         <v>253</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -5504,10 +5504,10 @@
         <v>257</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -5518,10 +5518,10 @@
         <v>259</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -5546,10 +5546,10 @@
         <v>263</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -5560,10 +5560,10 @@
         <v>265</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A133" s="4" t="s">
         <v>7</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A138" s="4" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A139" s="4" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A141" s="4" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A143" s="4" t="s">
         <v>7</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A145" s="4" t="s">
         <v>7</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A152" s="4" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A154" s="4" t="s">
         <v>7</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A157" s="4" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="59" x14ac:dyDescent="0.75">
       <c r="A160" s="4" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A171" s="4" t="s">
         <v>7</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -6175,10 +6175,10 @@
         <v>347</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A202" s="4" t="s">
         <v>7</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A203" s="4" t="s">
         <v>7</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A223" s="4" t="s">
         <v>440</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A224" s="4" t="s">
         <v>440</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A225" s="4" t="s">
         <v>440</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A226" s="4" t="s">
         <v>440</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A227" s="4" t="s">
         <v>440</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A228" s="4" t="s">
         <v>440</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A229" s="4" t="s">
         <v>440</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A230" s="4" t="s">
         <v>440</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A231" s="4" t="s">
         <v>440</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A232" s="4" t="s">
         <v>440</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A233" s="6" t="s">
         <v>440</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="D233" s="16"/>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A234" s="4" t="s">
         <v>440</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A235" s="4" t="s">
         <v>440</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A236" s="4" t="s">
         <v>440</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A237" s="4" t="s">
         <v>440</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A238" s="4" t="s">
         <v>440</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A239" s="4" t="s">
         <v>440</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A240" s="4" t="s">
         <v>440</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A241" s="4" t="s">
         <v>440</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A242" s="4" t="s">
         <v>440</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A243" s="4" t="s">
         <v>440</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A244" s="4" t="s">
         <v>440</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A245" s="4" t="s">
         <v>440</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A246" s="4" t="s">
         <v>440</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A247" s="4" t="s">
         <v>440</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A248" s="4" t="s">
         <v>440</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A249" s="4" t="s">
         <v>440</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A250" s="4" t="s">
         <v>440</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A251" s="4" t="s">
         <v>440</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A252" s="4" t="s">
         <v>440</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A253" s="4" t="s">
         <v>440</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A254" s="4" t="s">
         <v>440</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A255" s="4" t="s">
         <v>440</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A256" s="4" t="s">
         <v>440</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A257" s="4" t="s">
         <v>440</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A258" s="4" t="s">
         <v>440</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A259" s="4" t="s">
         <v>440</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A260" s="4" t="s">
         <v>440</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A261" s="4" t="s">
         <v>440</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A262" s="4" t="s">
         <v>440</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A263" s="4" t="s">
         <v>440</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A264" s="4" t="s">
         <v>440</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A265" s="4" t="s">
         <v>440</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A266" s="4" t="s">
         <v>440</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A267" s="4" t="s">
         <v>440</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A268" s="4" t="s">
         <v>440</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A269" s="4" t="s">
         <v>440</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A270" s="6" t="s">
         <v>440</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A271" s="6" t="s">
         <v>440</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A272" s="4" t="s">
         <v>440</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A273" s="4" t="s">
         <v>440</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A274" s="4" t="s">
         <v>440</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A275" s="4" t="s">
         <v>440</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A276" s="4" t="s">
         <v>440</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A278" s="4" t="s">
         <v>440</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A279" s="6" t="s">
         <v>440</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A280" s="6" t="s">
         <v>440</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A281" s="6" t="s">
         <v>440</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A282" s="6" t="s">
         <v>440</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A283" s="6" t="s">
         <v>440</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A284" s="6" t="s">
         <v>440</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A285" s="6" t="s">
         <v>440</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A286" s="4" t="s">
         <v>440</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A287" s="4" t="s">
         <v>440</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A288" s="4" t="s">
         <v>440</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A289" s="4" t="s">
         <v>440</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A290" s="4" t="s">
         <v>440</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A291" s="4" t="s">
         <v>440</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A292" s="4" t="s">
         <v>440</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A293" s="4" t="s">
         <v>440</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A294" s="4" t="s">
         <v>440</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A295" s="4" t="s">
         <v>440</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A296" s="4" t="s">
         <v>440</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A298" s="4" t="s">
         <v>440</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A299" s="4" t="s">
         <v>440</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A300" s="4" t="s">
         <v>440</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A301" s="4" t="s">
         <v>440</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A302" s="4" t="s">
         <v>440</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A303" s="4" t="s">
         <v>440</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A304" s="4" t="s">
         <v>440</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A305" s="4" t="s">
         <v>440</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A306" s="4" t="s">
         <v>440</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A307" s="4" t="s">
         <v>440</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A308" s="4" t="s">
         <v>440</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A309" s="4" t="s">
         <v>440</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A310" s="4" t="s">
         <v>440</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A311" s="4" t="s">
         <v>440</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A312" s="4" t="s">
         <v>440</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A313" s="4" t="s">
         <v>440</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A314" s="4" t="s">
         <v>440</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A315" s="4" t="s">
         <v>440</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A316" s="4" t="s">
         <v>440</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A317" s="4" t="s">
         <v>440</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A319" s="4" t="s">
         <v>440</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A320" s="4" t="s">
         <v>440</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A321" s="4" t="s">
         <v>440</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A322" s="4" t="s">
         <v>440</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A323" s="4" t="s">
         <v>440</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A324" s="4" t="s">
         <v>440</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A325" s="4" t="s">
         <v>440</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A326" s="4" t="s">
         <v>440</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A327" s="4" t="s">
         <v>440</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A328" s="4" t="s">
         <v>440</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A329" s="4" t="s">
         <v>440</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A330" s="4" t="s">
         <v>440</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A331" s="4" t="s">
         <v>440</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A332" s="4" t="s">
         <v>440</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A333" s="4" t="s">
         <v>440</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A334" s="4" t="s">
         <v>440</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A335" s="4" t="s">
         <v>440</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A336" s="6" t="s">
         <v>440</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A337" s="4" t="s">
         <v>440</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A338" s="4" t="s">
         <v>440</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A339" s="4" t="s">
         <v>440</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A340" s="4" t="s">
         <v>440</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A341" s="4" t="s">
         <v>440</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A342" s="4" t="s">
         <v>440</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A343" s="4" t="s">
         <v>440</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A344" s="4" t="s">
         <v>440</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A345" s="4" t="s">
         <v>440</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A346" s="4" t="s">
         <v>440</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A347" s="4" t="s">
         <v>440</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A348" s="4" t="s">
         <v>440</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A349" s="6" t="s">
         <v>440</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A350" s="6" t="s">
         <v>440</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A351" s="6" t="s">
         <v>440</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A352" s="6" t="s">
         <v>440</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A353" s="4" t="s">
         <v>440</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A354" s="4" t="s">
         <v>440</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A355" s="4" t="s">
         <v>440</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A356" s="4" t="s">
         <v>440</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A357" s="4" t="s">
         <v>440</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A358" s="4" t="s">
         <v>440</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A359" s="4" t="s">
         <v>440</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A360" s="4" t="s">
         <v>440</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A361" s="4" t="s">
         <v>440</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A362" s="4" t="s">
         <v>440</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A363" s="4" t="s">
         <v>440</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A364" s="4" t="s">
         <v>440</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A365" s="4" t="s">
         <v>440</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A366" s="4" t="s">
         <v>440</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A367" s="4" t="s">
         <v>440</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A368" s="4" t="s">
         <v>440</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A369" s="4" t="s">
         <v>440</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A370" s="4" t="s">
         <v>440</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A371" s="4" t="s">
         <v>440</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A372" s="4" t="s">
         <v>440</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A373" s="4" t="s">
         <v>440</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A374" s="4" t="s">
         <v>440</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A375" s="4" t="s">
         <v>440</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A376" s="4" t="s">
         <v>440</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A377" s="4" t="s">
         <v>440</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A378" s="4" t="s">
         <v>440</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A379" s="4" t="s">
         <v>440</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A380" s="4" t="s">
         <v>440</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A381" s="4" t="s">
         <v>440</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A382" s="4" t="s">
         <v>440</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A384" s="4" t="s">
         <v>440</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A385" s="6" t="s">
         <v>440</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A386" s="4" t="s">
         <v>440</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A387" s="4" t="s">
         <v>440</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A388" s="4" t="s">
         <v>440</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A389" s="4" t="s">
         <v>440</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A390" s="4" t="s">
         <v>440</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A391" s="4" t="s">
         <v>440</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A392" s="4" t="s">
         <v>440</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A393" s="4" t="s">
         <v>440</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A394" s="4" t="s">
         <v>440</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A395" s="4" t="s">
         <v>440</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A396" s="4" t="s">
         <v>440</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A397" s="4" t="s">
         <v>440</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A398" s="4" t="s">
         <v>440</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A399" s="4" t="s">
         <v>440</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A400" s="4" t="s">
         <v>440</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A401" s="6" t="s">
         <v>440</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A402" s="4" t="s">
         <v>440</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A403" s="4" t="s">
         <v>440</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A404" s="4" t="s">
         <v>440</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A406" s="4" t="s">
         <v>440</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A407" s="4" t="s">
         <v>440</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A408" s="4" t="s">
         <v>440</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A409" s="4" t="s">
         <v>440</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A410" s="4" t="s">
         <v>440</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A411" s="4" t="s">
         <v>440</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A412" s="4" t="s">
         <v>440</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A413" s="6" t="s">
         <v>440</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A414" s="6" t="s">
         <v>440</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A415" s="6" t="s">
         <v>440</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A416" s="6" t="s">
         <v>440</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A417" s="6" t="s">
         <v>440</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A418" s="6" t="s">
         <v>440</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A419" s="6" t="s">
         <v>440</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A420" s="6" t="s">
         <v>440</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A422" s="4" t="s">
         <v>440</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A423" s="4" t="s">
         <v>440</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A424" s="6" t="s">
         <v>832</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A425" s="4" t="s">
         <v>832</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A426" s="4" t="s">
         <v>832</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A427" s="4" t="s">
         <v>832</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A428" s="4" t="s">
         <v>832</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A429" s="4" t="s">
         <v>832</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A430" s="4" t="s">
         <v>832</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A431" s="4" t="s">
         <v>832</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A432" s="4" t="s">
         <v>832</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A433" s="4" t="s">
         <v>832</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A434" s="4" t="s">
         <v>832</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A435" s="4" t="s">
         <v>832</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A436" s="4" t="s">
         <v>832</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A438" s="4" t="s">
         <v>832</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A439" s="4" t="s">
         <v>832</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="60.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A440" s="4" t="s">
         <v>832</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A441" s="4" t="s">
         <v>832</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A442" s="4" t="s">
         <v>832</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A443" s="4" t="s">
         <v>832</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A444" s="4" t="s">
         <v>832</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A445" s="4" t="s">
         <v>832</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="446" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" s="9" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A446" s="6" t="s">
         <v>832</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A447" s="4" t="s">
         <v>832</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="59" x14ac:dyDescent="0.75">
       <c r="A448" s="4" t="s">
         <v>832</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A449" s="4" t="s">
         <v>832</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A450" s="4" t="s">
         <v>832</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A451" s="4" t="s">
         <v>832</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A452" s="6" t="s">
         <v>889</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A453" s="6" t="s">
         <v>889</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A454" s="6" t="s">
         <v>889</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A455" s="6" t="s">
         <v>889</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A456" s="6" t="s">
         <v>889</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A457" s="6" t="s">
         <v>889</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A458" s="6" t="s">
         <v>889</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A459" s="6" t="s">
         <v>889</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A460" s="6" t="s">
         <v>889</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="23.7" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A461" s="6" t="s">
         <v>889</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A462" s="6" t="s">
         <v>889</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A463" s="6" t="s">
         <v>889</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A464" s="6" t="s">
         <v>832</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A465" s="4" t="s">
         <v>440</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -10093,55 +10093,55 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:F51"/>
+  <dimension ref="B2:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" customWidth="1"/>
+    <col min="5" max="5" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:6" ht="26" x14ac:dyDescent="1.2">
       <c r="B2" s="17" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="1.2">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
       <c r="B4" s="21" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B11" s="1" t="s">
         <v>929</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>928</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>930</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>931</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>932</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>933</v>
       </c>
@@ -10239,249 +10239,283 @@
       <c r="E16" t="s">
         <v>952</v>
       </c>
-      <c r="F16" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="20" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" t="s">
+        <v>937</v>
+      </c>
+      <c r="E17" t="s">
+        <v>952</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B18" t="s">
+        <v>933</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>937</v>
+      </c>
+      <c r="E18" t="s">
+        <v>952</v>
+      </c>
+      <c r="F18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B19" t="s">
+        <v>934</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>938</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>953</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F19" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
+    <row r="21" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B21" s="21" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B23" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B24" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B26" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C26" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D26" s="22" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B27">
         <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B31">
         <v>5</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>7</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B37" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B38" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B39" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B40" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B41" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B42" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B44" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B45" t="s">
         <v>963</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B46" t="s">
         <v>962</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B47" t="s">
         <v>966</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
+    <row r="50" spans="2:3" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B50" s="21" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.75">
+      <c r="B51" t="s">
         <v>991</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.75">
+      <c r="B52" t="s">
         <v>986</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.75">
+      <c r="B53" t="s">
         <v>990</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>989</v>
       </c>
     </row>

--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_backallocation2\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joh\dev\OasisLMF_update-fm-docs\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BD5F59-DB1F-499E-B7EB-3A613DE845D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C6EB2-42D1-49A2-8DE3-189226CB6E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25507" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="28000" yWindow="2400" windowWidth="19200" windowHeight="9900" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1014">
   <si>
     <t>File Name</t>
   </si>
@@ -2975,15 +2975,9 @@
     <t>Cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">The terms are applied in the order of processing cycle. The net loss is output from each processing cycle and feeds into the next processing cycle. </t>
-  </si>
-  <si>
     <t>The calculated loss is passed from one level to the next, and the output from the final level is the gross loss.</t>
   </si>
   <si>
-    <t>Within each cycle there are three fixed levels of calculation.</t>
-  </si>
-  <si>
     <t>Risk level</t>
   </si>
   <si>
@@ -2996,27 +2990,12 @@
     <t>OccAttachment, OccLimit, PlacedPercent</t>
   </si>
   <si>
-    <t>Layer level</t>
-  </si>
-  <si>
     <t>The final step is to difference the input and the output, and pass through the net loss to the next processing cycle.</t>
   </si>
   <si>
-    <t>The first level groups losses by location and by policy. The calculation filters losses that are within the scope of each reinsurance layer and passes them through to the next level. All other losses are set to zero.</t>
-  </si>
-  <si>
     <t>All supported direct insurance terms are associated with a fixed 'FM level'. The level specifies how losses should be grouped together for processing.</t>
   </si>
   <si>
-    <t>Each Reinsurance layer (identified by ReinsNumber) is allocated to a processing cycle depending on the InuringPriority and RiskLevel. The number of cycles will vary depending on the data in the ri_info and ri_scope file</t>
-  </si>
-  <si>
-    <t>The second level groups loss to the Risk Level (either location, or policy, or account) and applies the CededPercent and then any risk terms to the losses.</t>
-  </si>
-  <si>
-    <t>The third level groups losses to the Layer level (which means summing losses across all risks in scope of the reinsurance layer) and applies the occurrence terms and finally the PlacedPercent which results in the Reinsurance layer loss</t>
-  </si>
-  <si>
     <t>Order of Operation</t>
   </si>
   <si>
@@ -3050,9 +3029,6 @@
     <t>Is the field supported by the OasisLMF financial module (Yes/No/(blank))</t>
   </si>
   <si>
-    <t>The order of terms appled within each level is determined by a specific calcrule that is invoked by the calculation.</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -3096,6 +3072,132 @@
   </si>
   <si>
     <t>v1.26</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>CXL</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Facultative</t>
+  </si>
+  <si>
+    <t>Quota Share</t>
+  </si>
+  <si>
+    <t>Surplus Share</t>
+  </si>
+  <si>
+    <t>Catastrophe Excess of Loss</t>
+  </si>
+  <si>
+    <t>Per Risk Excess of Loss</t>
+  </si>
+  <si>
+    <t>Each Reinsurance contract (identified by ReinsNumber) is allocated to a processing cycle depending on the InuringPriority and RiskLevel. The number of cycles will vary depending on the data in the ri_info and ri_scope file</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x*</t>
+  </si>
+  <si>
+    <t>*Only for Surplus Share is CededPercent specified per risk and taken from the reinsurance scope file. All other reinsurance types use the CededPercent in the reinsurance info file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The contracts are allocated to a processing cycle based on InuringPriority and RiskLevel and processed in cycle order. The net loss is output from each processing cycle and feeds into the next processing cycle. </t>
+  </si>
+  <si>
+    <t>Contract level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Location Policy Level: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The first level sums losses by location and by policy. The calculation filters losses that are within the scope of each reinsurance layer and passes them through to the next level. All other losses are set to zero because they are outside the scope of the contract.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Risk Level:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The second level sums loss to the Risk Level (either location, or policy, or account) and applies the CededPercent and then any risk terms to the losses.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Contract Level: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The third level groups losses to the contract level (which means summing losses across all risks in scope of the reinsurance layer) and applies the occurrence terms and finally the PlacedPercent which results in the Reinsurance contract loss</t>
+    </r>
+  </si>
+  <si>
+    <t>Within each cycle there are three fixed levels of calculation. Each level involves summing losses and then applying a financial terms calculation.</t>
+  </si>
+  <si>
+    <t>The following types of reinsurance are supported and use the fields in reinsurance info and reinsurance scope files indicated in the matrix</t>
   </si>
 </sst>
 </file>
@@ -3171,7 +3273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3179,12 +3281,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3245,6 +3362,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3641,7 +3762,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.75">
@@ -3649,13 +3770,13 @@
         <v>925</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>926</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.75">
@@ -3668,7 +3789,7 @@
         <v>922</v>
       </c>
       <c r="F9" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.75">
@@ -3692,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.75">
@@ -3700,7 +3821,7 @@
         <v>908</v>
       </c>
       <c r="G13" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.75">
@@ -3713,10 +3834,10 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B16" s="25" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -3736,8 +3857,8 @@
   <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3766,7 +3887,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3802,7 +3923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3827,7 +3948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3853,7 +3974,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3878,7 +3999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -3961,7 +4082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -3975,10 +4096,10 @@
         <v>910</v>
       </c>
       <c r="E18" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +4113,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4006,7 +4127,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4141,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4155,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4169,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4062,7 +4183,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4197,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4090,7 +4211,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4104,7 +4225,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4239,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4253,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4267,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4281,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4295,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4188,7 +4309,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4202,7 +4323,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4216,7 +4337,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4230,7 +4351,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4365,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +4379,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4272,7 +4393,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4407,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4300,7 +4421,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4314,7 +4435,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4449,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4342,7 +4463,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4477,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4370,7 +4491,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4505,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4519,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4533,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4547,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4440,7 +4561,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4454,7 +4575,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4468,7 +4589,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4482,7 +4603,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4496,7 +4617,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4510,7 +4631,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4524,7 +4645,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4538,7 +4659,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4673,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4566,7 +4687,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +4701,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4594,7 +4715,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4608,7 +4729,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4743,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4757,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4650,7 +4771,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -4664,7 +4785,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4799,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -4692,7 +4813,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +4885,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -4781,7 +4902,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -4795,7 +4916,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4930,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +4944,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -4837,7 +4958,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -4854,7 +4975,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -4871,7 +4992,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -4888,7 +5009,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -4902,7 +5023,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -4916,7 +5037,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -4930,10 +5051,10 @@
         <v>910</v>
       </c>
       <c r="E86" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -4947,7 +5068,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -4961,7 +5082,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -4975,7 +5096,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +5110,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -5003,7 +5124,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5017,7 +5138,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5031,7 +5152,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5045,7 +5166,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5180,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5073,7 +5194,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5087,7 +5208,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5101,7 +5222,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5115,7 +5236,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5250,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5143,7 +5264,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5157,7 +5278,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5171,7 +5292,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5185,7 +5306,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5199,7 +5320,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5213,7 +5334,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5227,7 +5348,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5241,7 +5362,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5255,7 +5376,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5269,7 +5390,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5283,7 +5404,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5418,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5432,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -5325,7 +5446,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5460,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -5353,7 +5474,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5488,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5516,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5409,7 +5530,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -5423,7 +5544,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -5437,7 +5558,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5451,7 +5572,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -5465,7 +5586,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -5479,7 +5600,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5493,7 +5614,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -5507,7 +5628,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -5521,7 +5642,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5535,7 +5656,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -5549,7 +5670,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -5563,7 +5684,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -5577,7 +5698,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A133" s="4" t="s">
         <v>7</v>
       </c>
@@ -5591,7 +5712,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -5605,7 +5726,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -5619,7 +5740,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5754,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -5647,7 +5768,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A138" s="4" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +5782,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A139" s="4" t="s">
         <v>7</v>
       </c>
@@ -5675,7 +5796,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -5689,7 +5810,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A141" s="4" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5824,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
@@ -5717,7 +5838,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A143" s="4" t="s">
         <v>7</v>
       </c>
@@ -5731,7 +5852,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
@@ -5745,7 +5866,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A145" s="4" t="s">
         <v>7</v>
       </c>
@@ -5759,7 +5880,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
@@ -5773,7 +5894,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
@@ -5787,7 +5908,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
@@ -5801,7 +5922,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
@@ -5815,7 +5936,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
@@ -5829,7 +5950,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -5843,7 +5964,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A152" s="4" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5978,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -5871,7 +5992,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A154" s="4" t="s">
         <v>7</v>
       </c>
@@ -5885,7 +6006,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:4" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -5899,7 +6020,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:4" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
@@ -5913,7 +6034,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A157" s="4" t="s">
         <v>7</v>
       </c>
@@ -5927,7 +6048,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
@@ -5941,7 +6062,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +6076,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="59" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:4" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A160" s="4" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +6090,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -5983,7 +6104,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +6118,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6077,21 +6198,21 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A171" s="4" t="s">
         <v>7</v>
       </c>
@@ -6099,13 +6220,13 @@
         <v>338</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
@@ -6113,13 +6234,13 @@
         <v>339</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -6133,7 +6254,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6147,10 +6268,10 @@
         <v>910</v>
       </c>
       <c r="E174" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6164,7 +6285,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -6178,7 +6299,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6313,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6327,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6220,7 +6341,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6234,7 +6355,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6369,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6262,7 +6383,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6276,7 +6397,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6290,7 +6411,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6304,7 +6425,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6318,7 +6439,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6332,7 +6453,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6467,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6481,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6495,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6388,7 +6509,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6523,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6416,7 +6537,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6430,7 +6551,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6444,7 +6565,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6458,7 +6579,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6593,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6486,7 +6607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6500,7 +6621,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6514,7 +6635,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -6528,7 +6649,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A202" s="4" t="s">
         <v>7</v>
       </c>
@@ -6542,10 +6663,10 @@
         <v>911</v>
       </c>
       <c r="E202" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A203" s="4" t="s">
         <v>7</v>
       </c>
@@ -6559,10 +6680,10 @@
         <v>911</v>
       </c>
       <c r="E203" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -6576,10 +6697,10 @@
         <v>911</v>
       </c>
       <c r="E204" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -6593,7 +6714,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -6607,7 +6728,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6742,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6756,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -6649,7 +6770,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -6663,7 +6784,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -6677,7 +6798,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6812,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -6705,7 +6826,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -6719,7 +6840,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -6733,7 +6854,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -6747,7 +6868,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6882,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6775,7 +6896,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6789,7 +6910,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6924,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6938,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -6831,7 +6952,7 @@
         <v>911</v>
       </c>
       <c r="E222" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
@@ -7374,7 +7495,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A272" s="4" t="s">
         <v>440</v>
       </c>
@@ -7388,10 +7509,10 @@
         <v>911</v>
       </c>
       <c r="E272" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.75">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A273" s="4" t="s">
         <v>440</v>
       </c>
@@ -7405,7 +7526,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A274" s="4" t="s">
         <v>440</v>
       </c>
@@ -7422,7 +7543,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A275" s="4" t="s">
         <v>440</v>
       </c>
@@ -7436,7 +7557,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A276" s="4" t="s">
         <v>440</v>
       </c>
@@ -7453,7 +7574,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
@@ -7467,7 +7588,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A278" s="4" t="s">
         <v>440</v>
       </c>
@@ -7484,7 +7605,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A279" s="6" t="s">
         <v>440</v>
       </c>
@@ -7498,7 +7619,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A280" s="6" t="s">
         <v>440</v>
       </c>
@@ -7512,7 +7633,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A281" s="6" t="s">
         <v>440</v>
       </c>
@@ -7526,7 +7647,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A282" s="6" t="s">
         <v>440</v>
       </c>
@@ -7540,7 +7661,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A283" s="6" t="s">
         <v>440</v>
       </c>
@@ -7554,7 +7675,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="43.95" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:5" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A284" s="6" t="s">
         <v>440</v>
       </c>
@@ -7568,7 +7689,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A285" s="6" t="s">
         <v>440</v>
       </c>
@@ -7593,7 +7714,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A287" s="4" t="s">
         <v>440</v>
       </c>
@@ -7607,7 +7728,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A288" s="4" t="s">
         <v>440</v>
       </c>
@@ -7621,7 +7742,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A289" s="4" t="s">
         <v>440</v>
       </c>
@@ -7635,7 +7756,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A290" s="4" t="s">
         <v>440</v>
       </c>
@@ -7649,7 +7770,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A291" s="4" t="s">
         <v>440</v>
       </c>
@@ -7663,7 +7784,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A292" s="4" t="s">
         <v>440</v>
       </c>
@@ -7677,7 +7798,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A293" s="4" t="s">
         <v>440</v>
       </c>
@@ -7691,7 +7812,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A294" s="4" t="s">
         <v>440</v>
       </c>
@@ -7705,7 +7826,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A295" s="4" t="s">
         <v>440</v>
       </c>
@@ -7719,7 +7840,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A296" s="4" t="s">
         <v>440</v>
       </c>
@@ -7733,7 +7854,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -7747,7 +7868,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A298" s="4" t="s">
         <v>440</v>
       </c>
@@ -7761,7 +7882,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A299" s="4" t="s">
         <v>440</v>
       </c>
@@ -7775,7 +7896,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A300" s="4" t="s">
         <v>440</v>
       </c>
@@ -7789,7 +7910,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A301" s="4" t="s">
         <v>440</v>
       </c>
@@ -7803,7 +7924,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A302" s="4" t="s">
         <v>440</v>
       </c>
@@ -7817,7 +7938,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A303" s="4" t="s">
         <v>440</v>
       </c>
@@ -7831,7 +7952,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A304" s="4" t="s">
         <v>440</v>
       </c>
@@ -7845,7 +7966,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A305" s="4" t="s">
         <v>440</v>
       </c>
@@ -7859,7 +7980,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A306" s="4" t="s">
         <v>440</v>
       </c>
@@ -7873,7 +7994,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A307" s="4" t="s">
         <v>440</v>
       </c>
@@ -7887,7 +8008,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A308" s="4" t="s">
         <v>440</v>
       </c>
@@ -7901,7 +8022,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A309" s="4" t="s">
         <v>440</v>
       </c>
@@ -7915,7 +8036,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A310" s="4" t="s">
         <v>440</v>
       </c>
@@ -7929,7 +8050,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A311" s="4" t="s">
         <v>440</v>
       </c>
@@ -7943,7 +8064,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A312" s="4" t="s">
         <v>440</v>
       </c>
@@ -7957,7 +8078,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A313" s="4" t="s">
         <v>440</v>
       </c>
@@ -7971,7 +8092,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A314" s="4" t="s">
         <v>440</v>
       </c>
@@ -7985,7 +8106,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A315" s="4" t="s">
         <v>440</v>
       </c>
@@ -7999,7 +8120,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A316" s="4" t="s">
         <v>440</v>
       </c>
@@ -8013,7 +8134,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A317" s="4" t="s">
         <v>440</v>
       </c>
@@ -8027,7 +8148,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -8041,7 +8162,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A319" s="4" t="s">
         <v>440</v>
       </c>
@@ -8055,7 +8176,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
       <c r="A320" s="4" t="s">
         <v>440</v>
       </c>
@@ -8069,7 +8190,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A321" s="4" t="s">
         <v>440</v>
       </c>
@@ -8083,7 +8204,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A322" s="4" t="s">
         <v>440</v>
       </c>
@@ -8097,7 +8218,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A323" s="4" t="s">
         <v>440</v>
       </c>
@@ -8111,7 +8232,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A324" s="4" t="s">
         <v>440</v>
       </c>
@@ -8125,7 +8246,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A325" s="4" t="s">
         <v>440</v>
       </c>
@@ -8139,7 +8260,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A326" s="4" t="s">
         <v>440</v>
       </c>
@@ -8153,7 +8274,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A327" s="4" t="s">
         <v>440</v>
       </c>
@@ -8167,7 +8288,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A328" s="4" t="s">
         <v>440</v>
       </c>
@@ -8181,7 +8302,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A329" s="4" t="s">
         <v>440</v>
       </c>
@@ -8195,7 +8316,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A330" s="4" t="s">
         <v>440</v>
       </c>
@@ -8209,7 +8330,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A331" s="4" t="s">
         <v>440</v>
       </c>
@@ -8223,7 +8344,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A332" s="4" t="s">
         <v>440</v>
       </c>
@@ -8237,7 +8358,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A333" s="4" t="s">
         <v>440</v>
       </c>
@@ -8251,7 +8372,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A334" s="4" t="s">
         <v>440</v>
       </c>
@@ -8265,7 +8386,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A335" s="4" t="s">
         <v>440</v>
       </c>
@@ -8279,7 +8400,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A336" s="6" t="s">
         <v>440</v>
       </c>
@@ -8293,7 +8414,7 @@
         <v>910</v>
       </c>
       <c r="E336" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
@@ -9253,7 +9374,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A424" s="6" t="s">
         <v>832</v>
       </c>
@@ -9267,7 +9388,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A425" s="4" t="s">
         <v>832</v>
       </c>
@@ -9281,7 +9402,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A426" s="4" t="s">
         <v>832</v>
       </c>
@@ -9295,7 +9416,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A427" s="4" t="s">
         <v>832</v>
       </c>
@@ -9309,10 +9430,10 @@
         <v>910</v>
       </c>
       <c r="E427" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.75">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A428" s="4" t="s">
         <v>832</v>
       </c>
@@ -9326,7 +9447,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A429" s="4" t="s">
         <v>832</v>
       </c>
@@ -9340,7 +9461,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:5" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A430" s="4" t="s">
         <v>832</v>
       </c>
@@ -9354,7 +9475,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A431" s="4" t="s">
         <v>832</v>
       </c>
@@ -9368,7 +9489,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A432" s="4" t="s">
         <v>832</v>
       </c>
@@ -9382,7 +9503,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A433" s="4" t="s">
         <v>832</v>
       </c>
@@ -9396,10 +9517,10 @@
         <v>911</v>
       </c>
       <c r="E433" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.75">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A434" s="4" t="s">
         <v>832</v>
       </c>
@@ -9413,10 +9534,10 @@
         <v>911</v>
       </c>
       <c r="E434" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.75">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A435" s="4" t="s">
         <v>832</v>
       </c>
@@ -9430,7 +9551,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A436" s="4" t="s">
         <v>832</v>
       </c>
@@ -9444,7 +9565,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
@@ -9458,7 +9579,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A438" s="4" t="s">
         <v>832</v>
       </c>
@@ -9472,7 +9593,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A439" s="4" t="s">
         <v>832</v>
       </c>
@@ -9486,7 +9607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="60.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:5" ht="60.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A440" s="4" t="s">
         <v>832</v>
       </c>
@@ -9500,7 +9621,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A441" s="4" t="s">
         <v>832</v>
       </c>
@@ -9517,7 +9638,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A442" s="4" t="s">
         <v>832</v>
       </c>
@@ -9531,7 +9652,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A443" s="4" t="s">
         <v>832</v>
       </c>
@@ -9545,7 +9666,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A444" s="4" t="s">
         <v>832</v>
       </c>
@@ -9559,7 +9680,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A445" s="4" t="s">
         <v>832</v>
       </c>
@@ -9573,7 +9694,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="446" spans="1:5" s="9" customFormat="1" ht="59" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:5" s="9" customFormat="1" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A446" s="6" t="s">
         <v>832</v>
       </c>
@@ -9587,7 +9708,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A447" s="4" t="s">
         <v>832</v>
       </c>
@@ -9601,7 +9722,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="59" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:5" ht="59" hidden="1" x14ac:dyDescent="0.75">
       <c r="A448" s="4" t="s">
         <v>832</v>
       </c>
@@ -9615,7 +9736,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A449" s="4" t="s">
         <v>832</v>
       </c>
@@ -9629,7 +9750,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A450" s="4" t="s">
         <v>832</v>
       </c>
@@ -9643,7 +9764,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="45.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:5" ht="45.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A451" s="4" t="s">
         <v>832</v>
       </c>
@@ -9657,7 +9778,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="452" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A452" s="6" t="s">
         <v>889</v>
       </c>
@@ -9671,7 +9792,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A453" s="6" t="s">
         <v>889</v>
       </c>
@@ -9685,7 +9806,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A454" s="6" t="s">
         <v>889</v>
       </c>
@@ -9699,7 +9820,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A455" s="6" t="s">
         <v>889</v>
       </c>
@@ -9713,7 +9834,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:5" s="9" customFormat="1" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A456" s="6" t="s">
         <v>889</v>
       </c>
@@ -9727,7 +9848,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A457" s="6" t="s">
         <v>889</v>
       </c>
@@ -9741,7 +9862,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A458" s="6" t="s">
         <v>889</v>
       </c>
@@ -9755,7 +9876,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:5" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A459" s="6" t="s">
         <v>889</v>
       </c>
@@ -9769,7 +9890,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:5" ht="32.700000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A460" s="6" t="s">
         <v>889</v>
       </c>
@@ -9783,7 +9904,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="23.7" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:5" ht="23.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A461" s="6" t="s">
         <v>889</v>
       </c>
@@ -9797,7 +9918,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A462" s="6" t="s">
         <v>889</v>
       </c>
@@ -9811,7 +9932,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A463" s="6" t="s">
         <v>889</v>
       </c>
@@ -9825,10 +9946,10 @@
         <v>911</v>
       </c>
       <c r="E463" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A464" s="6" t="s">
         <v>832</v>
       </c>
@@ -9842,7 +9963,7 @@
         <v>911</v>
       </c>
       <c r="E464" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
     </row>
     <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
@@ -9856,7 +9977,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -9870,11 +9991,16 @@
         <v>911</v>
       </c>
       <c r="E466" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E466" xr:uid="{00252C19-57C4-4095-B3AB-85A45AD6EFCF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PolLimit1Building"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10093,19 +10219,22 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:F53"/>
+  <dimension ref="B2:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.6796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="35.54296875" customWidth="1"/>
     <col min="5" max="5" width="59.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26" x14ac:dyDescent="1.2">
@@ -10123,7 +10252,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.75">
@@ -10138,7 +10267,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.75">
@@ -10243,7 +10372,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>933</v>
       </c>
@@ -10260,7 +10389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B18" t="s">
         <v>933</v>
       </c>
@@ -10277,7 +10406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>934</v>
       </c>
@@ -10294,232 +10423,380 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="2:9" ht="18.5" x14ac:dyDescent="0.9">
       <c r="B21" s="21" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B23" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B24" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B26" s="22" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B22" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B24" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>849</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B25" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B26" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>999</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B27" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B28" s="26" t="s">
+        <v>995</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B29" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.75">
+      <c r="B31" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B33" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B34" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B36" s="22" t="s">
         <v>958</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D36" s="22" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B27">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B37">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D37" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B28">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D38" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B29">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B39">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D39" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B30">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B40">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D40" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B31">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D41" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B32">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B42">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D42" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D43" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B34">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B44">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D44" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B45">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D45" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B37" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B38" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B39" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B40" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B41" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B42" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B44" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B45" t="s">
-        <v>963</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B46" t="s">
-        <v>962</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B47" t="s">
-        <v>966</v>
-      </c>
-      <c r="C47">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B48" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B49" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B50" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B51" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B54" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B55" t="s">
+        <v>961</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B56" t="s">
+        <v>960</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B57" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C57">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="B50" s="21" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.75">
-      <c r="B51" t="s">
-        <v>991</v>
-      </c>
-      <c r="C51" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.75">
-      <c r="B52" t="s">
-        <v>986</v>
-      </c>
-      <c r="C52" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.75">
-      <c r="B53" t="s">
-        <v>990</v>
-      </c>
-      <c r="C53" t="s">
-        <v>989</v>
+      <c r="D57" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B60" s="21" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B61" t="s">
+        <v>983</v>
+      </c>
+      <c r="C61" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B62" t="s">
+        <v>978</v>
+      </c>
+      <c r="C62" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B63" t="s">
+        <v>982</v>
+      </c>
+      <c r="C63" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joh\dev\OasisLMF_update-fm-docs\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C6EB2-42D1-49A2-8DE3-189226CB6E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5CA35D-B6C4-4DF3-9E70-6420A93BD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28000" yWindow="2400" windowWidth="19200" windowHeight="9900" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OED Financial Fields supported'!$A$1:$E$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OED Financial Fields supported'!$A$1:$F$466</definedName>
     <definedName name="AreaaCode">'[1]AreaCode Values'!#REF!</definedName>
     <definedName name="BaseIsolation">'[1]Other Values'!#REF!</definedName>
     <definedName name="ContentVulnerability">'[1]Other Values'!#REF!</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1035">
   <si>
     <t>File Name</t>
   </si>
@@ -2822,9 +2822,6 @@
     <t>Flags which locations within a policy should contribute a loss or not when using CondNumber for special conditions</t>
   </si>
   <si>
-    <t>Supported in Oasis</t>
-  </si>
-  <si>
     <t>Implementation notes</t>
   </si>
   <si>
@@ -2840,9 +2837,6 @@
     <t>Where PolNumber is common to multiple layers, this field is required to uniquely identify a layer</t>
   </si>
   <si>
-    <t>A single currency for all monetary fields is assumed</t>
-  </si>
-  <si>
     <t>All policy terms will be processed for all models regardless of the values in this field, but also see LocPerilsCovered</t>
   </si>
   <si>
@@ -2852,9 +2846,6 @@
     <t>Location maximum BI deductible</t>
   </si>
   <si>
-    <t>Blank value or missing field is treated as unlimited</t>
-  </si>
-  <si>
     <t>Blank value or missing field is treated as 100% participation. Value of 0 will be treated as 0% participation and result in zero gross loss</t>
   </si>
   <si>
@@ -2873,36 +2864,12 @@
     <t>The field name</t>
   </si>
   <si>
-    <t>OED Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oasis Platform version </t>
-  </si>
-  <si>
     <t>Extra detail on how the field is implemented, or the implications if it is not used</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>FM Level description</t>
   </si>
   <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Cond</t>
-  </si>
-  <si>
-    <t>Pol</t>
-  </si>
-  <si>
-    <t>Layer</t>
-  </si>
-  <si>
     <t>FM Level number</t>
   </si>
   <si>
@@ -2951,18 +2918,12 @@
     <t>LocDed{Cov}, LocMinDed{Cov}, LocMaxDed{Cov},LocLimit{Cov}</t>
   </si>
   <si>
-    <t>CondDed{Cov}, CondMinDed{Cov}, CondMaxDed{Cov},CondLimit{Cov}</t>
-  </si>
-  <si>
     <t>PolDed{Cov}, PolMinDed{Cov}, PolMaxDed{Cov},PolLimit{Cov}</t>
   </si>
   <si>
     <t>LayerAttachment, LayerLimit, LayerParticipation</t>
   </si>
   <si>
-    <t>If no terms are present for a level, it is skipped in the calculation. However Levels 1 and 6 are always calculated, with passthrough rules where there are no terms.</t>
-  </si>
-  <si>
     <t>Terms are applied in ascending FM Level order, and within each level in the order described in the table below. The order within level is determined by a specific calcrule that is invoked by the calculation.</t>
   </si>
   <si>
@@ -3026,9 +2987,6 @@
     <t>Table containing all OED input fields and notes on the implementation of the financial terms</t>
   </si>
   <si>
-    <t>Is the field supported by the OasisLMF financial module (Yes/No/(blank))</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -3066,12 +3024,6 @@
   </si>
   <si>
     <t>To be used for Policy Restriction conditions. A value of 1 means the condition is a policy restriction and locations that are not subject to the condition do not contribute loss to the policy</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>v1.26</t>
   </si>
   <si>
     <t>QS</t>
@@ -3157,29 +3109,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Risk Level:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The second level sums loss to the Risk Level (either location, or policy, or account) and applies the CededPercent and then any risk terms to the losses.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Contract Level: </t>
     </r>
     <r>
@@ -3199,12 +3128,146 @@
   <si>
     <t>The following types of reinsurance are supported and use the fields in reinsurance info and reinsurance scope files indicated in the matrix</t>
   </si>
+  <si>
+    <t>Version introduced</t>
+  </si>
+  <si>
+    <t>Oasis LMF Version of last update</t>
+  </si>
+  <si>
+    <t>1.27.1</t>
+  </si>
+  <si>
+    <t>1.26.1</t>
+  </si>
+  <si>
+    <t>1.23.0</t>
+  </si>
+  <si>
+    <t>1.27.0</t>
+  </si>
+  <si>
+    <t>https://github.com/OasisLMF/OasisLMF/blob/main/docs/OED_currency_support.md</t>
+  </si>
+  <si>
+    <t>Supported in Oasis FM</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1.28.2</t>
+  </si>
+  <si>
+    <t>Is the field supported by the OasisLMF financial module (Yes/No/N/A)</t>
+  </si>
+  <si>
+    <t>Supported for step policies from 1.28.2</t>
+  </si>
+  <si>
+    <t>The first version of OasisLMF in which the field has been supported. If blank, the field has been supported from v1.15 LTS or earlier.</t>
+  </si>
+  <si>
+    <t>(Not supported yet)</t>
+  </si>
+  <si>
+    <t>Cond Coverage</t>
+  </si>
+  <si>
+    <t>Cond PD</t>
+  </si>
+  <si>
+    <t>Cond Site</t>
+  </si>
+  <si>
+    <t>Pol Coverage</t>
+  </si>
+  <si>
+    <t>Pol PD</t>
+  </si>
+  <si>
+    <t>Location Coverage</t>
+  </si>
+  <si>
+    <t>Location PD</t>
+  </si>
+  <si>
+    <t>QS, CXL</t>
+  </si>
+  <si>
+    <t>FAC, SS, PR</t>
+  </si>
+  <si>
+    <t>Blank value or missing field is treated as unlimited.  Value of 0 will force the gross loss to be zero.</t>
+  </si>
+  <si>
+    <t>Account Coverage</t>
+  </si>
+  <si>
+    <t>Account PD</t>
+  </si>
+  <si>
+    <t>LocDed5PD, LocMinDed5PD, LocMaxDed5PD,LocLimit5PD</t>
+  </si>
+  <si>
+    <t>LocDed6All, LocMinDed6All, LocMaxDed6All,LocLimit6All</t>
+  </si>
+  <si>
+    <t>CondDed6All, CondMinDed6All, CondMaxDed6All,CondLimit6All</t>
+  </si>
+  <si>
+    <t>PolDed5PD, PolMinDed5PD, PolMaxDed5PD,PolLimit5PD</t>
+  </si>
+  <si>
+    <t>PolDed6All, PolMinDed6All, PolMaxDed6All,PolLimit6All</t>
+  </si>
+  <si>
+    <t>AccDed6All, AccMinDed6All, AccMaxDed6All,AccLimit6All</t>
+  </si>
+  <si>
+    <t>Pol All</t>
+  </si>
+  <si>
+    <t>Site All</t>
+  </si>
+  <si>
+    <t>Pol Layer</t>
+  </si>
+  <si>
+    <t>Acc All</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Risk Level:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The second level sums loss to the Risk Level (either location, or policy, or account) and applies the CededPercent and then any risk terms to the losses. Does not apply to QS or CXL</t>
+    </r>
+  </si>
+  <si>
+    <t>If no terms are present for a level, it is not included in the calculation hierarchy. However Levels 1 and 10 are always calculated, with passthrough rules where there are no terms.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,6 +3327,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3288,12 +3358,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3301,7 +3367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3359,19 +3425,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3392,6 +3481,40 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3406,7 +3529,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="OED Input Fields (2)"/>
@@ -3444,6 +3567,50 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}" name="Table1" displayName="Table1" ref="B11:F24" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B11:F24" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F54D3DF2-BE52-4E1D-BD85-D0DA017D7BF4}" name="FM Level description"/>
+    <tableColumn id="2" xr3:uid="{2C83C4EB-10E0-4099-816E-79C13F70EFDB}" name="FM Level number"/>
+    <tableColumn id="3" xr3:uid="{BD88269E-B3E5-4F89-B691-53999BF46AA6}" name="Order within level"/>
+    <tableColumn id="4" xr3:uid="{99166E25-4626-4C86-8DC6-1B959057FB36}" name="Fields"/>
+    <tableColumn id="5" xr3:uid="{D20A3213-D190-4DDA-8F63-D6949F6E2625}" name="Coverages" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6469971-8D39-4286-92B0-35AF56E53524}" name="Table2" displayName="Table2" ref="B31:J36" totalsRowShown="0" headerRowDxfId="3">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3DC44208-4263-4B76-B9BE-9DD3AE44F15A}" name="ReinsType"/>
+    <tableColumn id="2" xr3:uid="{CA43E191-F45D-4A71-BB63-04252D492D37}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{A0EA2F80-9DEB-4D81-914E-3454D922E00B}" name="CededPercent"/>
+    <tableColumn id="4" xr3:uid="{FEAEDA74-3F1E-4BB8-9735-8E5C16E1B329}" name="RiskAttachment"/>
+    <tableColumn id="5" xr3:uid="{BC050593-97B0-44AB-A8CB-41E41345DCB3}" name="RiskLimit"/>
+    <tableColumn id="6" xr3:uid="{DE8DE3CC-6403-434A-8A31-F67E479AA251}" name="RiskLevel"/>
+    <tableColumn id="7" xr3:uid="{A4772C3F-E9AD-4277-9FFF-3457926AD167}" name="OccAttachment"/>
+    <tableColumn id="8" xr3:uid="{09A76DAD-8B5A-492A-A8A4-37EB19E8EDAC}" name="OccLimit"/>
+    <tableColumn id="9" xr3:uid="{DF672A00-B11D-4384-8175-1B01ADFC1744}" name="PlacedPercent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}" name="Table3" displayName="Table3" ref="B43:E52" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B43:E52" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B56E00E7-8372-43AD-BEDA-9425D4900CDA}" name="Cycle"/>
+    <tableColumn id="2" xr3:uid="{61CC2681-7C8D-49F0-BF36-49D4AC47259B}" name="Inuring Priority"/>
+    <tableColumn id="3" xr3:uid="{799354F3-8A2A-46A3-9BE1-02C8978A2778}" name="Risk Level"/>
+    <tableColumn id="4" xr3:uid="{EDB1EE38-BEC7-4C6C-8526-680653842C4C}" name="ReinsType"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3743,107 +3910,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A96003-720B-43B8-9EF2-827249A8ADF9}">
-  <dimension ref="B2:G16"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="1.2">
+    <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="17" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.75">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.75">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>925</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>926</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B8" s="24" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B9" s="25" t="s">
-        <v>922</v>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>919</v>
       </c>
       <c r="F9" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.75">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.75">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.75">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F12" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.75">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="G13" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="F14" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="G14" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B16" s="25" t="s">
-        <v>966</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>967</v>
+      <c r="G15" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="F17" t="s">
+        <v>954</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" location="'OED Financial Fields supported'!A1" display="OED Financial Fields supported" xr:uid="{44C4CCDC-B9B9-4236-8673-24389D362148}"/>
-    <hyperlink ref="B16" location="'Order of Operation'!A1" display="Order of Operation" xr:uid="{D0651C2D-EDEC-4EED-A5CB-5CA4FE02FA3F}"/>
+    <hyperlink ref="B17" location="'Order of Operation'!A1" display="Order of Operation" xr:uid="{D0651C2D-EDEC-4EED-A5CB-5CA4FE02FA3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3854,23 +4025,24 @@
   <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E466"/>
+  <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F443" sqref="F443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.6796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3881,13 +4053,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3898,10 +4073,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3911,8 +4086,11 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D3" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3922,8 +4100,11 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D4" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3934,10 +4115,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -3947,8 +4128,11 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D6" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -3959,10 +4143,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3972,9 +4156,11 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D8" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3985,10 +4171,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3998,8 +4184,11 @@
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D10" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4013,10 +4202,13 @@
         <v>910</v>
       </c>
       <c r="E11" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>1002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4026,8 +4218,11 @@
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D12" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -4037,8 +4232,11 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D13" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4048,8 +4246,11 @@
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D14" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4059,8 +4260,11 @@
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D15" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -4070,8 +4274,11 @@
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D16" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4081,8 +4288,11 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D17" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4093,13 +4303,13 @@
         <v>39</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E18" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+      <c r="F18" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4110,10 +4320,10 @@
         <v>41</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4124,10 +4334,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4138,10 +4348,10 @@
         <v>45</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4152,10 +4362,10 @@
         <v>47</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4166,10 +4376,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4180,10 +4390,10 @@
         <v>51</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4194,10 +4404,10 @@
         <v>53</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4208,10 +4418,10 @@
         <v>55</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4222,10 +4432,10 @@
         <v>57</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4236,10 +4446,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4250,10 +4460,10 @@
         <v>61</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4264,10 +4474,10 @@
         <v>63</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4278,10 +4488,10 @@
         <v>65</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4292,10 +4502,10 @@
         <v>67</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4306,10 +4516,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4320,10 +4530,10 @@
         <v>71</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4334,10 +4544,10 @@
         <v>73</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4348,10 +4558,10 @@
         <v>75</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4362,10 +4572,10 @@
         <v>77</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4376,10 +4586,10 @@
         <v>79</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4390,10 +4600,10 @@
         <v>81</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4404,10 +4614,10 @@
         <v>83</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4418,10 +4628,10 @@
         <v>85</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4432,10 +4642,10 @@
         <v>87</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4446,10 +4656,10 @@
         <v>89</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4460,10 +4670,10 @@
         <v>91</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4476,8 +4686,11 @@
       <c r="D45" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="E45" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4490,8 +4703,11 @@
       <c r="D46" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="E46" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4504,8 +4720,11 @@
       <c r="D47" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="E47" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4518,8 +4737,11 @@
       <c r="D48" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="E48" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4530,10 +4752,10 @@
         <v>101</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4544,10 +4766,10 @@
         <v>103</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4558,10 +4780,10 @@
         <v>105</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4572,10 +4794,10 @@
         <v>107</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4586,10 +4808,10 @@
         <v>109</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4600,10 +4822,10 @@
         <v>111</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4614,10 +4836,10 @@
         <v>113</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4628,10 +4850,10 @@
         <v>115</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4642,10 +4864,10 @@
         <v>117</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4656,10 +4878,10 @@
         <v>119</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4670,10 +4892,10 @@
         <v>121</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4684,10 +4906,10 @@
         <v>123</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4698,10 +4920,10 @@
         <v>125</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4712,10 +4934,10 @@
         <v>127</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4726,10 +4948,10 @@
         <v>129</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4740,10 +4962,10 @@
         <v>131</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4756,8 +4978,11 @@
       <c r="D65" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="E65" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4770,8 +4995,11 @@
       <c r="D66" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="E66" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -4782,10 +5010,10 @@
         <v>137</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -4796,10 +5024,10 @@
         <v>139</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -4810,10 +5038,10 @@
         <v>141</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -4824,10 +5052,10 @@
         <v>143</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -4837,8 +5065,11 @@
       <c r="C71" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D71" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -4848,8 +5079,11 @@
       <c r="C72" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D72" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -4859,8 +5093,11 @@
       <c r="C73" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D73" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -4870,8 +5107,11 @@
       <c r="C74" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D74" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -4882,10 +5122,10 @@
         <v>153</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -4896,13 +5136,13 @@
         <v>155</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E76" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+      <c r="F76" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -4913,10 +5153,10 @@
         <v>157</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -4927,10 +5167,10 @@
         <v>159</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -4941,10 +5181,10 @@
         <v>161</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -4955,10 +5195,10 @@
         <v>163</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -4969,13 +5209,13 @@
         <v>165</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E81" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F81" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -4986,13 +5226,13 @@
         <v>167</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E82" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F82" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -5003,13 +5243,13 @@
         <v>169</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E83" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -5020,10 +5260,10 @@
         <v>171</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -5034,10 +5274,10 @@
         <v>173</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -5048,13 +5288,13 @@
         <v>175</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E86" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+      <c r="F86" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -5065,10 +5305,10 @@
         <v>177</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -5079,10 +5319,13 @@
         <v>179</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -5093,10 +5336,13 @@
         <v>181</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -5107,10 +5353,13 @@
         <v>183</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -5121,10 +5370,13 @@
         <v>185</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5135,10 +5387,10 @@
         <v>187</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5149,10 +5401,13 @@
         <v>189</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5163,10 +5418,13 @@
         <v>191</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5177,10 +5435,13 @@
         <v>193</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5191,10 +5452,13 @@
         <v>195</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5205,10 +5469,10 @@
         <v>197</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5219,10 +5483,13 @@
         <v>199</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5233,10 +5500,13 @@
         <v>201</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5247,10 +5517,13 @@
         <v>203</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5261,10 +5534,13 @@
         <v>205</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5275,10 +5551,10 @@
         <v>207</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5289,10 +5565,13 @@
         <v>209</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5303,10 +5582,13 @@
         <v>211</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5317,10 +5599,13 @@
         <v>213</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5331,10 +5616,13 @@
         <v>215</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5345,10 +5633,10 @@
         <v>217</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5359,10 +5647,13 @@
         <v>219</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5373,10 +5664,13 @@
         <v>221</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5387,10 +5681,13 @@
         <v>223</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5401,10 +5698,13 @@
         <v>225</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5415,10 +5715,10 @@
         <v>227</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -5429,10 +5729,10 @@
         <v>229</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -5443,10 +5743,10 @@
         <v>231</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -5457,10 +5757,10 @@
         <v>233</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -5471,10 +5771,10 @@
         <v>235</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5485,10 +5785,10 @@
         <v>237</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>7</v>
       </c>
@@ -5499,10 +5799,13 @@
         <v>239</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>7</v>
       </c>
@@ -5513,10 +5816,13 @@
         <v>241</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5527,10 +5833,10 @@
         <v>243</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>7</v>
       </c>
@@ -5541,10 +5847,13 @@
         <v>245</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>7</v>
       </c>
@@ -5555,10 +5864,13 @@
         <v>247</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5569,10 +5881,10 @@
         <v>249</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>7</v>
       </c>
@@ -5583,10 +5895,13 @@
         <v>251</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>7</v>
       </c>
@@ -5597,10 +5912,13 @@
         <v>253</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5611,10 +5929,10 @@
         <v>255</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -5625,10 +5943,13 @@
         <v>257</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
@@ -5639,10 +5960,13 @@
         <v>259</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5653,10 +5977,10 @@
         <v>261</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
@@ -5667,10 +5991,13 @@
         <v>263</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>7</v>
       </c>
@@ -5681,10 +6008,13 @@
         <v>265</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -5695,10 +6025,10 @@
         <v>267</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>7</v>
       </c>
@@ -5709,10 +6039,10 @@
         <v>269</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -5723,10 +6053,10 @@
         <v>271</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -5737,10 +6067,10 @@
         <v>273</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>7</v>
       </c>
@@ -5751,10 +6081,10 @@
         <v>275</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>7</v>
       </c>
@@ -5765,10 +6095,10 @@
         <v>277</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>7</v>
       </c>
@@ -5779,10 +6109,10 @@
         <v>279</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>7</v>
       </c>
@@ -5793,10 +6123,10 @@
         <v>281</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -5807,10 +6137,10 @@
         <v>283</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>7</v>
       </c>
@@ -5821,10 +6151,10 @@
         <v>285</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>7</v>
       </c>
@@ -5835,10 +6165,10 @@
         <v>287</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>7</v>
       </c>
@@ -5849,10 +6179,10 @@
         <v>289</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
@@ -5863,10 +6193,10 @@
         <v>291</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>7</v>
       </c>
@@ -5877,10 +6207,10 @@
         <v>293</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>7</v>
       </c>
@@ -5891,10 +6221,10 @@
         <v>295</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>7</v>
       </c>
@@ -5905,10 +6235,10 @@
         <v>297</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
@@ -5919,10 +6249,10 @@
         <v>299</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>7</v>
       </c>
@@ -5933,10 +6263,10 @@
         <v>301</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>7</v>
       </c>
@@ -5947,10 +6277,10 @@
         <v>303</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -5961,10 +6291,10 @@
         <v>305</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>7</v>
       </c>
@@ -5975,10 +6305,10 @@
         <v>307</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -5989,10 +6319,10 @@
         <v>309</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>7</v>
       </c>
@@ -6003,10 +6333,10 @@
         <v>311</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -6017,10 +6347,10 @@
         <v>313</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
@@ -6031,10 +6361,10 @@
         <v>315</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>7</v>
       </c>
@@ -6045,10 +6375,10 @@
         <v>317</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
@@ -6059,10 +6389,10 @@
         <v>319</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>7</v>
       </c>
@@ -6073,10 +6403,10 @@
         <v>321</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="59" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>7</v>
       </c>
@@ -6087,10 +6417,10 @@
         <v>323</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -6101,10 +6431,10 @@
         <v>325</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -6115,10 +6445,10 @@
         <v>327</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6129,10 +6459,10 @@
         <v>329</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -6142,8 +6472,11 @@
       <c r="C164" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D164" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -6153,8 +6486,11 @@
       <c r="C165" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D165" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -6164,8 +6500,11 @@
       <c r="C166" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D166" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -6175,8 +6514,11 @@
       <c r="C167" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D167" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -6186,8 +6528,11 @@
       <c r="C168" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D168" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -6197,22 +6542,25 @@
       <c r="C169" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D169" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>7</v>
       </c>
@@ -6220,13 +6568,13 @@
         <v>338</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
@@ -6234,13 +6582,13 @@
         <v>339</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -6251,10 +6599,10 @@
         <v>341</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6265,13 +6613,13 @@
         <v>343</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E174" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+      <c r="F174" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6282,10 +6630,10 @@
         <v>345</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -6296,10 +6644,10 @@
         <v>347</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6310,10 +6658,10 @@
         <v>349</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6324,10 +6672,10 @@
         <v>351</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6338,10 +6686,10 @@
         <v>353</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6352,10 +6700,10 @@
         <v>355</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6366,10 +6714,10 @@
         <v>357</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6380,10 +6728,10 @@
         <v>359</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6394,10 +6742,10 @@
         <v>361</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6408,10 +6756,10 @@
         <v>363</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6422,10 +6770,10 @@
         <v>365</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6436,10 +6784,10 @@
         <v>367</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6450,10 +6798,10 @@
         <v>369</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6464,10 +6812,10 @@
         <v>371</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6478,10 +6826,10 @@
         <v>373</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6492,10 +6840,10 @@
         <v>375</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6506,10 +6854,10 @@
         <v>377</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6520,10 +6868,10 @@
         <v>379</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6534,10 +6882,10 @@
         <v>381</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6548,10 +6896,10 @@
         <v>383</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6562,10 +6910,10 @@
         <v>385</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6576,10 +6924,10 @@
         <v>387</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6590,10 +6938,10 @@
         <v>389</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6604,10 +6952,10 @@
         <v>391</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6618,10 +6966,10 @@
         <v>393</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6632,10 +6980,10 @@
         <v>395</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -6646,10 +6994,10 @@
         <v>397</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>7</v>
       </c>
@@ -6660,13 +7008,13 @@
         <v>399</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E202" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F202" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>7</v>
       </c>
@@ -6677,13 +7025,13 @@
         <v>401</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E203" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F203" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>7</v>
       </c>
@@ -6694,13 +7042,13 @@
         <v>403</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E204" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F204" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -6711,10 +7059,10 @@
         <v>405</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -6725,10 +7073,10 @@
         <v>407</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -6739,10 +7087,10 @@
         <v>409</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -6753,10 +7101,10 @@
         <v>411</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -6767,10 +7115,10 @@
         <v>413</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -6781,10 +7129,10 @@
         <v>415</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -6795,10 +7143,10 @@
         <v>417</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -6809,10 +7157,10 @@
         <v>419</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -6823,10 +7171,10 @@
         <v>421</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -6837,10 +7185,10 @@
         <v>423</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -6851,10 +7199,10 @@
         <v>425</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -6865,10 +7213,10 @@
         <v>427</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -6879,10 +7227,10 @@
         <v>429</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -6893,10 +7241,10 @@
         <v>431</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -6907,10 +7255,10 @@
         <v>433</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -6921,10 +7269,10 @@
         <v>435</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>7</v>
       </c>
@@ -6935,10 +7283,10 @@
         <v>437</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
@@ -6949,13 +7297,13 @@
         <v>439</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E222" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F222" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>440</v>
       </c>
@@ -6965,8 +7313,11 @@
       <c r="C223" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D223" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>440</v>
       </c>
@@ -6976,8 +7327,11 @@
       <c r="C224" s="5" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D224" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>440</v>
       </c>
@@ -6987,8 +7341,11 @@
       <c r="C225" s="5" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D225" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>440</v>
       </c>
@@ -6998,8 +7355,11 @@
       <c r="C226" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D226" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>440</v>
       </c>
@@ -7009,8 +7369,11 @@
       <c r="C227" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D227" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>440</v>
       </c>
@@ -7020,8 +7383,11 @@
       <c r="C228" s="5" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D228" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>440</v>
       </c>
@@ -7031,8 +7397,11 @@
       <c r="C229" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D229" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>440</v>
       </c>
@@ -7042,8 +7411,11 @@
       <c r="C230" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D230" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>440</v>
       </c>
@@ -7053,8 +7425,11 @@
       <c r="C231" s="5" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D231" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>440</v>
       </c>
@@ -7064,8 +7439,11 @@
       <c r="C232" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D232" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>440</v>
       </c>
@@ -7075,9 +7453,11 @@
       <c r="C233" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="D233" s="16"/>
-    </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D233" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>440</v>
       </c>
@@ -7087,8 +7467,11 @@
       <c r="C234" s="5" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D234" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>440</v>
       </c>
@@ -7098,8 +7481,11 @@
       <c r="C235" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D235" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>440</v>
       </c>
@@ -7109,8 +7495,11 @@
       <c r="C236" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D236" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>440</v>
       </c>
@@ -7120,8 +7509,11 @@
       <c r="C237" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D237" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>440</v>
       </c>
@@ -7131,8 +7523,11 @@
       <c r="C238" s="5" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D238" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>440</v>
       </c>
@@ -7142,8 +7537,11 @@
       <c r="C239" s="5" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D239" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>440</v>
       </c>
@@ -7153,8 +7551,11 @@
       <c r="C240" s="5" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D240" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>440</v>
       </c>
@@ -7164,8 +7565,11 @@
       <c r="C241" s="5" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D241" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>440</v>
       </c>
@@ -7175,8 +7579,11 @@
       <c r="C242" s="5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D242" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>440</v>
       </c>
@@ -7186,8 +7593,11 @@
       <c r="C243" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D243" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>440</v>
       </c>
@@ -7197,8 +7607,11 @@
       <c r="C244" s="5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D244" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>440</v>
       </c>
@@ -7208,8 +7621,11 @@
       <c r="C245" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D245" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>440</v>
       </c>
@@ -7219,8 +7635,11 @@
       <c r="C246" s="5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D246" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>440</v>
       </c>
@@ -7230,8 +7649,11 @@
       <c r="C247" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D247" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>440</v>
       </c>
@@ -7241,8 +7663,11 @@
       <c r="C248" s="5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D248" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>440</v>
       </c>
@@ -7252,8 +7677,11 @@
       <c r="C249" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D249" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>440</v>
       </c>
@@ -7263,8 +7691,11 @@
       <c r="C250" s="5" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D250" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>440</v>
       </c>
@@ -7274,8 +7705,11 @@
       <c r="C251" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D251" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>440</v>
       </c>
@@ -7285,8 +7719,11 @@
       <c r="C252" s="5" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D252" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>440</v>
       </c>
@@ -7296,8 +7733,11 @@
       <c r="C253" s="5" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D253" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>440</v>
       </c>
@@ -7307,8 +7747,11 @@
       <c r="C254" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D254" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>440</v>
       </c>
@@ -7318,8 +7761,11 @@
       <c r="C255" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D255" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>440</v>
       </c>
@@ -7329,8 +7775,11 @@
       <c r="C256" s="5" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D256" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>440</v>
       </c>
@@ -7340,8 +7789,11 @@
       <c r="C257" s="5" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D257" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>440</v>
       </c>
@@ -7351,8 +7803,11 @@
       <c r="C258" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D258" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>440</v>
       </c>
@@ -7362,8 +7817,11 @@
       <c r="C259" s="5" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D259" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>440</v>
       </c>
@@ -7373,8 +7831,11 @@
       <c r="C260" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D260" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>440</v>
       </c>
@@ -7384,8 +7845,11 @@
       <c r="C261" s="5" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D261" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>440</v>
       </c>
@@ -7395,8 +7859,11 @@
       <c r="C262" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D262" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>440</v>
       </c>
@@ -7406,8 +7873,11 @@
       <c r="C263" s="5" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D263" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>440</v>
       </c>
@@ -7417,8 +7887,11 @@
       <c r="C264" s="5" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D264" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>440</v>
       </c>
@@ -7428,8 +7901,11 @@
       <c r="C265" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D265" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>440</v>
       </c>
@@ -7439,8 +7915,11 @@
       <c r="C266" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D266" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>440</v>
       </c>
@@ -7450,8 +7929,11 @@
       <c r="C267" s="5" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D267" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>440</v>
       </c>
@@ -7461,8 +7943,11 @@
       <c r="C268" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D268" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>440</v>
       </c>
@@ -7472,8 +7957,11 @@
       <c r="C269" s="5" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D269" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>440</v>
       </c>
@@ -7483,8 +7971,11 @@
       <c r="C270" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D270" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>440</v>
       </c>
@@ -7494,8 +7985,11 @@
       <c r="C271" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D271" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>440</v>
       </c>
@@ -7506,13 +8000,13 @@
         <v>531</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E272" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F272" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>440</v>
       </c>
@@ -7523,10 +8017,10 @@
         <v>533</v>
       </c>
       <c r="D273" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>440</v>
       </c>
@@ -7537,13 +8031,13 @@
         <v>535</v>
       </c>
       <c r="D274" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="F274" t="s">
         <v>911</v>
       </c>
-      <c r="E274" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>440</v>
       </c>
@@ -7554,10 +8048,10 @@
         <v>537</v>
       </c>
       <c r="D275" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>440</v>
       </c>
@@ -7568,13 +8062,13 @@
         <v>539</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E276" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
@@ -7585,10 +8079,10 @@
         <v>541</v>
       </c>
       <c r="D277" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>440</v>
       </c>
@@ -7602,10 +8096,13 @@
         <v>910</v>
       </c>
       <c r="E278" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>1002</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>440</v>
       </c>
@@ -7616,10 +8113,10 @@
         <v>545</v>
       </c>
       <c r="D279" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>440</v>
       </c>
@@ -7630,10 +8127,10 @@
         <v>547</v>
       </c>
       <c r="D280" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>440</v>
       </c>
@@ -7644,10 +8141,10 @@
         <v>549</v>
       </c>
       <c r="D281" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>440</v>
       </c>
@@ -7658,10 +8155,10 @@
         <v>551</v>
       </c>
       <c r="D282" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>440</v>
       </c>
@@ -7672,10 +8169,10 @@
         <v>553</v>
       </c>
       <c r="D283" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>440</v>
       </c>
@@ -7686,10 +8183,10 @@
         <v>555</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>440</v>
       </c>
@@ -7700,10 +8197,10 @@
         <v>557</v>
       </c>
       <c r="D285" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>440</v>
       </c>
@@ -7713,8 +8210,11 @@
       <c r="C286" s="5" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D286" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>440</v>
       </c>
@@ -7725,10 +8225,10 @@
         <v>561</v>
       </c>
       <c r="D287" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>440</v>
       </c>
@@ -7739,10 +8239,10 @@
         <v>563</v>
       </c>
       <c r="D288" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>440</v>
       </c>
@@ -7753,10 +8253,10 @@
         <v>565</v>
       </c>
       <c r="D289" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>440</v>
       </c>
@@ -7767,10 +8267,10 @@
         <v>567</v>
       </c>
       <c r="D290" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>440</v>
       </c>
@@ -7781,10 +8281,10 @@
         <v>569</v>
       </c>
       <c r="D291" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>440</v>
       </c>
@@ -7795,10 +8295,10 @@
         <v>571</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>440</v>
       </c>
@@ -7809,10 +8309,10 @@
         <v>573</v>
       </c>
       <c r="D293" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>440</v>
       </c>
@@ -7823,10 +8323,10 @@
         <v>575</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>440</v>
       </c>
@@ -7837,10 +8337,10 @@
         <v>577</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>440</v>
       </c>
@@ -7851,10 +8351,10 @@
         <v>579</v>
       </c>
       <c r="D296" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -7865,10 +8365,10 @@
         <v>581</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>440</v>
       </c>
@@ -7879,10 +8379,10 @@
         <v>583</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>440</v>
       </c>
@@ -7893,10 +8393,10 @@
         <v>585</v>
       </c>
       <c r="D299" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>440</v>
       </c>
@@ -7907,10 +8407,10 @@
         <v>587</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>440</v>
       </c>
@@ -7921,10 +8421,10 @@
         <v>589</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>440</v>
       </c>
@@ -7935,10 +8435,10 @@
         <v>591</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>440</v>
       </c>
@@ -7949,10 +8449,10 @@
         <v>593</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>440</v>
       </c>
@@ -7963,10 +8463,10 @@
         <v>595</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>440</v>
       </c>
@@ -7974,13 +8474,13 @@
         <v>596</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D305" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>440</v>
       </c>
@@ -7988,13 +8488,13 @@
         <v>597</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>440</v>
       </c>
@@ -8005,10 +8505,10 @@
         <v>599</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>440</v>
       </c>
@@ -8019,10 +8519,10 @@
         <v>601</v>
       </c>
       <c r="D308" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>440</v>
       </c>
@@ -8033,10 +8533,10 @@
         <v>603</v>
       </c>
       <c r="D309" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>440</v>
       </c>
@@ -8047,10 +8547,10 @@
         <v>605</v>
       </c>
       <c r="D310" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>440</v>
       </c>
@@ -8061,10 +8561,10 @@
         <v>607</v>
       </c>
       <c r="D311" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>440</v>
       </c>
@@ -8075,10 +8575,10 @@
         <v>609</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>440</v>
       </c>
@@ -8089,10 +8589,10 @@
         <v>611</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>440</v>
       </c>
@@ -8103,10 +8603,10 @@
         <v>613</v>
       </c>
       <c r="D314" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>440</v>
       </c>
@@ -8117,10 +8617,10 @@
         <v>615</v>
       </c>
       <c r="D315" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>440</v>
       </c>
@@ -8131,10 +8631,10 @@
         <v>617</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>440</v>
       </c>
@@ -8145,10 +8645,10 @@
         <v>619</v>
       </c>
       <c r="D317" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -8159,10 +8659,10 @@
         <v>621</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>440</v>
       </c>
@@ -8173,10 +8673,10 @@
         <v>623</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>440</v>
       </c>
@@ -8187,10 +8687,10 @@
         <v>625</v>
       </c>
       <c r="D320" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>440</v>
       </c>
@@ -8201,10 +8701,10 @@
         <v>627</v>
       </c>
       <c r="D321" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>440</v>
       </c>
@@ -8215,10 +8715,10 @@
         <v>629</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>440</v>
       </c>
@@ -8229,10 +8729,10 @@
         <v>631</v>
       </c>
       <c r="D323" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>440</v>
       </c>
@@ -8243,10 +8743,10 @@
         <v>633</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>440</v>
       </c>
@@ -8257,10 +8757,10 @@
         <v>635</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>440</v>
       </c>
@@ -8271,10 +8771,10 @@
         <v>637</v>
       </c>
       <c r="D326" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>440</v>
       </c>
@@ -8285,10 +8785,10 @@
         <v>639</v>
       </c>
       <c r="D327" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>440</v>
       </c>
@@ -8299,10 +8799,10 @@
         <v>641</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>440</v>
       </c>
@@ -8313,10 +8813,10 @@
         <v>643</v>
       </c>
       <c r="D329" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>440</v>
       </c>
@@ -8327,10 +8827,10 @@
         <v>645</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>440</v>
       </c>
@@ -8341,10 +8841,10 @@
         <v>647</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>440</v>
       </c>
@@ -8355,10 +8855,10 @@
         <v>649</v>
       </c>
       <c r="D332" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>440</v>
       </c>
@@ -8369,10 +8869,10 @@
         <v>651</v>
       </c>
       <c r="D333" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>440</v>
       </c>
@@ -8383,10 +8883,10 @@
         <v>653</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>440</v>
       </c>
@@ -8397,10 +8897,10 @@
         <v>655</v>
       </c>
       <c r="D335" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>440</v>
       </c>
@@ -8411,13 +8911,13 @@
         <v>657</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E336" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+      <c r="F336" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>440</v>
       </c>
@@ -8427,8 +8927,11 @@
       <c r="C337" s="5" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D337" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>440</v>
       </c>
@@ -8438,8 +8941,11 @@
       <c r="C338" s="5" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D338" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>440</v>
       </c>
@@ -8449,8 +8955,11 @@
       <c r="C339" s="5" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D339" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>440</v>
       </c>
@@ -8460,8 +8969,11 @@
       <c r="C340" s="5" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D340" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>440</v>
       </c>
@@ -8471,8 +8983,11 @@
       <c r="C341" s="5" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D341" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>440</v>
       </c>
@@ -8482,8 +8997,11 @@
       <c r="C342" s="5" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D342" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>440</v>
       </c>
@@ -8493,8 +9011,11 @@
       <c r="C343" s="5" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D343" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>440</v>
       </c>
@@ -8504,8 +9025,11 @@
       <c r="C344" s="5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D344" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>440</v>
       </c>
@@ -8515,8 +9039,11 @@
       <c r="C345" s="5" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D345" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>440</v>
       </c>
@@ -8526,8 +9053,11 @@
       <c r="C346" s="5" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D346" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>440</v>
       </c>
@@ -8537,8 +9067,11 @@
       <c r="C347" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D347" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>440</v>
       </c>
@@ -8548,8 +9081,11 @@
       <c r="C348" s="5" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D348" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>440</v>
       </c>
@@ -8559,8 +9095,11 @@
       <c r="C349" s="5" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D349" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>440</v>
       </c>
@@ -8570,8 +9109,11 @@
       <c r="C350" s="5" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D350" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>440</v>
       </c>
@@ -8581,8 +9123,11 @@
       <c r="C351" s="5" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D351" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>440</v>
       </c>
@@ -8592,8 +9137,11 @@
       <c r="C352" s="5" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D352" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>440</v>
       </c>
@@ -8603,8 +9151,11 @@
       <c r="C353" s="5" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D353" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>440</v>
       </c>
@@ -8614,8 +9165,11 @@
       <c r="C354" s="5" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D354" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>440</v>
       </c>
@@ -8625,8 +9179,11 @@
       <c r="C355" s="5" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D355" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>440</v>
       </c>
@@ -8636,8 +9193,11 @@
       <c r="C356" s="5" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D356" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>440</v>
       </c>
@@ -8647,8 +9207,11 @@
       <c r="C357" s="5" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D357" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>440</v>
       </c>
@@ -8658,8 +9221,11 @@
       <c r="C358" s="5" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D358" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>440</v>
       </c>
@@ -8669,8 +9235,11 @@
       <c r="C359" s="5" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D359" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>440</v>
       </c>
@@ -8680,8 +9249,11 @@
       <c r="C360" s="5" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D360" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>440</v>
       </c>
@@ -8691,8 +9263,11 @@
       <c r="C361" s="5" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D361" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>440</v>
       </c>
@@ -8702,8 +9277,11 @@
       <c r="C362" s="5" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D362" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>440</v>
       </c>
@@ -8713,8 +9291,11 @@
       <c r="C363" s="5" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D363" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>440</v>
       </c>
@@ -8724,8 +9305,11 @@
       <c r="C364" s="5" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D364" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>440</v>
       </c>
@@ -8735,8 +9319,11 @@
       <c r="C365" s="5" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D365" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>440</v>
       </c>
@@ -8746,8 +9333,11 @@
       <c r="C366" s="5" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D366" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>440</v>
       </c>
@@ -8757,8 +9347,11 @@
       <c r="C367" s="5" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D367" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>440</v>
       </c>
@@ -8768,8 +9361,11 @@
       <c r="C368" s="5" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D368" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>440</v>
       </c>
@@ -8779,8 +9375,11 @@
       <c r="C369" s="5" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D369" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>440</v>
       </c>
@@ -8790,8 +9389,11 @@
       <c r="C370" s="5" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D370" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>440</v>
       </c>
@@ -8801,8 +9403,11 @@
       <c r="C371" s="5" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D371" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>440</v>
       </c>
@@ -8812,8 +9417,11 @@
       <c r="C372" s="5" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D372" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>440</v>
       </c>
@@ -8823,8 +9431,11 @@
       <c r="C373" s="5" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D373" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>440</v>
       </c>
@@ -8834,8 +9445,11 @@
       <c r="C374" s="5" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D374" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>440</v>
       </c>
@@ -8845,8 +9459,11 @@
       <c r="C375" s="5" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D375" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>440</v>
       </c>
@@ -8856,8 +9473,11 @@
       <c r="C376" s="5" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D376" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>440</v>
       </c>
@@ -8867,8 +9487,11 @@
       <c r="C377" s="5" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D377" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>440</v>
       </c>
@@ -8878,8 +9501,11 @@
       <c r="C378" s="5" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D378" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>440</v>
       </c>
@@ -8889,8 +9515,11 @@
       <c r="C379" s="5" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D379" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>440</v>
       </c>
@@ -8900,8 +9529,11 @@
       <c r="C380" s="5" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D380" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>440</v>
       </c>
@@ -8911,8 +9543,11 @@
       <c r="C381" s="5" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D381" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>440</v>
       </c>
@@ -8922,8 +9557,11 @@
       <c r="C382" s="5" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D382" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -8933,8 +9571,11 @@
       <c r="C383" s="5" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" ht="44.25" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D383" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>440</v>
       </c>
@@ -8944,8 +9585,11 @@
       <c r="C384" s="5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D384" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>440</v>
       </c>
@@ -8955,8 +9599,11 @@
       <c r="C385" s="5" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D385" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>440</v>
       </c>
@@ -8966,8 +9613,11 @@
       <c r="C386" s="5" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D386" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>440</v>
       </c>
@@ -8977,8 +9627,11 @@
       <c r="C387" s="5" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D387" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>440</v>
       </c>
@@ -8988,8 +9641,11 @@
       <c r="C388" s="5" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D388" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>440</v>
       </c>
@@ -8999,8 +9655,11 @@
       <c r="C389" s="5" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D389" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>440</v>
       </c>
@@ -9010,8 +9669,11 @@
       <c r="C390" s="5" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D390" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>440</v>
       </c>
@@ -9021,8 +9683,11 @@
       <c r="C391" s="5" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D391" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>440</v>
       </c>
@@ -9032,8 +9697,11 @@
       <c r="C392" s="5" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D392" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>440</v>
       </c>
@@ -9043,8 +9711,11 @@
       <c r="C393" s="5" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D393" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>440</v>
       </c>
@@ -9054,8 +9725,11 @@
       <c r="C394" s="5" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D394" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>440</v>
       </c>
@@ -9065,8 +9739,11 @@
       <c r="C395" s="5" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="59" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D395" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>440</v>
       </c>
@@ -9076,8 +9753,11 @@
       <c r="C396" s="5" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D396" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>440</v>
       </c>
@@ -9087,8 +9767,11 @@
       <c r="C397" s="5" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D397" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>440</v>
       </c>
@@ -9098,8 +9781,11 @@
       <c r="C398" s="5" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D398" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>440</v>
       </c>
@@ -9109,8 +9795,11 @@
       <c r="C399" s="5" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="D399" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>440</v>
       </c>
@@ -9120,8 +9809,11 @@
       <c r="C400" s="5" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D400" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>440</v>
       </c>
@@ -9131,8 +9823,11 @@
       <c r="C401" s="5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D401" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>440</v>
       </c>
@@ -9142,8 +9837,11 @@
       <c r="C402" s="5" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D402" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>440</v>
       </c>
@@ -9153,8 +9851,11 @@
       <c r="C403" s="5" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D403" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>440</v>
       </c>
@@ -9164,8 +9865,11 @@
       <c r="C404" s="5" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D404" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
@@ -9175,8 +9879,11 @@
       <c r="C405" s="5" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D405" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>440</v>
       </c>
@@ -9186,8 +9893,11 @@
       <c r="C406" s="5" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D406" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>440</v>
       </c>
@@ -9197,8 +9907,11 @@
       <c r="C407" s="5" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D407" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>440</v>
       </c>
@@ -9208,8 +9921,11 @@
       <c r="C408" s="5" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D408" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>440</v>
       </c>
@@ -9219,8 +9935,11 @@
       <c r="C409" s="5" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D409" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>440</v>
       </c>
@@ -9230,8 +9949,11 @@
       <c r="C410" s="5" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D410" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>440</v>
       </c>
@@ -9241,8 +9963,11 @@
       <c r="C411" s="5" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D411" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>440</v>
       </c>
@@ -9252,8 +9977,11 @@
       <c r="C412" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D412" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>440</v>
       </c>
@@ -9263,8 +9991,11 @@
       <c r="C413" s="5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D413" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>440</v>
       </c>
@@ -9274,8 +10005,11 @@
       <c r="C414" s="5" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D414" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>440</v>
       </c>
@@ -9285,8 +10019,11 @@
       <c r="C415" s="5" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D415" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>440</v>
       </c>
@@ -9296,8 +10033,11 @@
       <c r="C416" s="5" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D416" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>440</v>
       </c>
@@ -9307,8 +10047,11 @@
       <c r="C417" s="5" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="418" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D417" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>440</v>
       </c>
@@ -9318,8 +10061,11 @@
       <c r="C418" s="5" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D418" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>440</v>
       </c>
@@ -9329,8 +10075,11 @@
       <c r="C419" s="5" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="420" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D419" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>440</v>
       </c>
@@ -9340,8 +10089,11 @@
       <c r="C420" s="5" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D420" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
@@ -9351,8 +10103,11 @@
       <c r="C421" s="5" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D421" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>440</v>
       </c>
@@ -9362,8 +10117,11 @@
       <c r="C422" s="5" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D422" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>440</v>
       </c>
@@ -9373,8 +10131,11 @@
       <c r="C423" s="5" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D423" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>832</v>
       </c>
@@ -9385,10 +10146,10 @@
         <v>834</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>832</v>
       </c>
@@ -9399,10 +10160,10 @@
         <v>836</v>
       </c>
       <c r="D425" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>832</v>
       </c>
@@ -9413,10 +10174,10 @@
         <v>838</v>
       </c>
       <c r="D426" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>832</v>
       </c>
@@ -9427,13 +10188,13 @@
         <v>840</v>
       </c>
       <c r="D427" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="E427" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+      <c r="F427" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>832</v>
       </c>
@@ -9444,10 +10205,10 @@
         <v>842</v>
       </c>
       <c r="D428" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>832</v>
       </c>
@@ -9458,10 +10219,10 @@
         <v>844</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>832</v>
       </c>
@@ -9472,10 +10233,10 @@
         <v>846</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>832</v>
       </c>
@@ -9486,10 +10247,10 @@
         <v>848</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>832</v>
       </c>
@@ -9500,10 +10261,10 @@
         <v>850</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>832</v>
       </c>
@@ -9514,13 +10275,13 @@
         <v>852</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E433" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F433" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>832</v>
       </c>
@@ -9531,13 +10292,13 @@
         <v>854</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E434" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F434" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>832</v>
       </c>
@@ -9548,10 +10309,10 @@
         <v>856</v>
       </c>
       <c r="D435" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>832</v>
       </c>
@@ -9562,10 +10323,10 @@
         <v>858</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
@@ -9576,10 +10337,10 @@
         <v>860</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>832</v>
       </c>
@@ -9590,10 +10351,10 @@
         <v>862</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>832</v>
       </c>
@@ -9604,10 +10365,10 @@
         <v>864</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" ht="60.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>832</v>
       </c>
@@ -9618,10 +10379,10 @@
         <v>866</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>832</v>
       </c>
@@ -9635,10 +10396,13 @@
         <v>910</v>
       </c>
       <c r="E441" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>1002</v>
+      </c>
+      <c r="F441" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>832</v>
       </c>
@@ -9649,10 +10413,10 @@
         <v>870</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>832</v>
       </c>
@@ -9663,10 +10427,10 @@
         <v>872</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>832</v>
       </c>
@@ -9677,10 +10441,10 @@
         <v>874</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>832</v>
       </c>
@@ -9691,10 +10455,10 @@
         <v>876</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" s="9" customFormat="1" ht="59" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" s="9" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>832</v>
       </c>
@@ -9705,10 +10469,10 @@
         <v>878</v>
       </c>
       <c r="D446" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>832</v>
       </c>
@@ -9719,10 +10483,10 @@
         <v>880</v>
       </c>
       <c r="D447" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" ht="59" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>832</v>
       </c>
@@ -9733,10 +10497,10 @@
         <v>882</v>
       </c>
       <c r="D448" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>832</v>
       </c>
@@ -9747,10 +10511,10 @@
         <v>884</v>
       </c>
       <c r="D449" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>832</v>
       </c>
@@ -9761,10 +10525,10 @@
         <v>886</v>
       </c>
       <c r="D450" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" ht="45.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="45.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>832</v>
       </c>
@@ -9775,10 +10539,10 @@
         <v>888</v>
       </c>
       <c r="D451" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>889</v>
       </c>
@@ -9789,10 +10553,10 @@
         <v>890</v>
       </c>
       <c r="D452" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" s="9" customFormat="1" ht="30.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>889</v>
       </c>
@@ -9803,10 +10567,10 @@
         <v>891</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" s="9" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>889</v>
       </c>
@@ -9817,10 +10581,10 @@
         <v>892</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" s="9" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>889</v>
       </c>
@@ -9831,10 +10595,10 @@
         <v>893</v>
       </c>
       <c r="D455" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" s="9" customFormat="1" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>889</v>
       </c>
@@ -9845,10 +10609,10 @@
         <v>894</v>
       </c>
       <c r="D456" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" s="9" customFormat="1" ht="30.45" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" s="9" customFormat="1" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>889</v>
       </c>
@@ -9859,10 +10623,10 @@
         <v>895</v>
       </c>
       <c r="D457" s="16" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>889</v>
       </c>
@@ -9873,10 +10637,10 @@
         <v>896</v>
       </c>
       <c r="D458" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>889</v>
       </c>
@@ -9887,10 +10651,10 @@
         <v>897</v>
       </c>
       <c r="D459" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="32.700000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="32.700000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>889</v>
       </c>
@@ -9901,10 +10665,10 @@
         <v>898</v>
       </c>
       <c r="D460" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="23.7" hidden="1" customHeight="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="23.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>889</v>
       </c>
@@ -9915,10 +10679,10 @@
         <v>899</v>
       </c>
       <c r="D461" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>889</v>
       </c>
@@ -9929,10 +10693,10 @@
         <v>900</v>
       </c>
       <c r="D462" s="16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>889</v>
       </c>
@@ -9943,13 +10707,13 @@
         <v>901</v>
       </c>
       <c r="D463" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E463" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F463" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>832</v>
       </c>
@@ -9960,13 +10724,13 @@
         <v>903</v>
       </c>
       <c r="D464" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="E464" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+        <v>910</v>
+      </c>
+      <c r="F464" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>440</v>
       </c>
@@ -9976,8 +10740,11 @@
       <c r="C465" s="5" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="D465" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>7</v>
       </c>
@@ -9988,32 +10755,35 @@
         <v>907</v>
       </c>
       <c r="D466" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E466" t="s">
-        <v>989</v>
+        <v>1001</v>
+      </c>
+      <c r="F466" t="s">
+        <v>975</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E466" xr:uid="{00252C19-57C4-4095-B3AB-85A45AD6EFCF}">
+  <autoFilter ref="A1:F466" xr:uid="{365A42DD-2054-40BA-A16F-280F201D1D70}">
     <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="**"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
       <filters>
-        <filter val="PolLimit1Building"/>
+        <filter val="Yes"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="D2:D466">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="D2:E466">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D466">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+  <conditionalFormatting sqref="D7:E466">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10219,584 +10989,720 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B2:I63"/>
+  <dimension ref="B2:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" customWidth="1"/>
-    <col min="5" max="5" width="59.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26" x14ac:dyDescent="1.2">
+    <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="17" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="1.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="2:6" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B6" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B7" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B8" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B9" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B11" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>935</v>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>924</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.75">
+        <v>925</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>928</v>
+        <v>1016</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="E12" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.75">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>930</v>
+        <v>1017</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="E13" t="s">
-        <v>950</v>
+        <v>1023</v>
       </c>
       <c r="F13" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>931</v>
+        <v>1030</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="E14" t="s">
-        <v>950</v>
+        <v>1024</v>
       </c>
       <c r="F14" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B15" t="s">
-        <v>932</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="26">
+        <v>5</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="26">
+        <v>6</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F16" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>937</v>
-      </c>
-      <c r="E15" t="s">
-        <v>951</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="D17" t="s">
+        <v>926</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F17" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B16" t="s">
-        <v>933</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>937</v>
-      </c>
-      <c r="E16" t="s">
-        <v>952</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B17" t="s">
-        <v>933</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>937</v>
-      </c>
-      <c r="E17" t="s">
-        <v>952</v>
-      </c>
-      <c r="F17" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>933</v>
+        <v>1014</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="E18" t="s">
-        <v>952</v>
-      </c>
-      <c r="F18" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.75">
+        <v>940</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>934</v>
+        <v>1015</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>926</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F19" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>926</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F20" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>927</v>
+      </c>
+      <c r="E21" t="s">
+        <v>941</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C22" s="26">
+        <v>11</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>938</v>
       </c>
-      <c r="E19" t="s">
-        <v>953</v>
-      </c>
-      <c r="F19" s="20" t="s">
+    </row>
+    <row r="23" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="26">
+        <v>12</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F23" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F24" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="B21" s="21" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B22" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B24" s="26" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F26" s="20"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="28" t="s">
         <v>871</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>997</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="C31" s="28" t="s">
+        <v>981</v>
+      </c>
+      <c r="D31" s="28" t="s">
         <v>845</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E31" s="28" t="s">
         <v>849</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F31" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G31" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="H31" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I31" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J31" s="29" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B25" s="26" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="s">
+        <v>978</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>982</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="G32" t="s">
+        <v>988</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>983</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="28" t="s">
+        <v>977</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>984</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>989</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="G34" t="s">
+        <v>988</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="s">
+        <v>979</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>986</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="G35" t="s">
+        <v>988</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="28" t="s">
+        <v>980</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>985</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="H36" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>988</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="22" t="s">
+        <v>945</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>930</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>931</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>932</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>933</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>930</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>931</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>932</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>933</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>994</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>998</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B26" s="26" t="s">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>948</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>947</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>992</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>999</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B27" s="26" t="s">
-        <v>993</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B28" s="26" t="s">
-        <v>995</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B29" s="26" t="s">
-        <v>996</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.75">
-      <c r="B31" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B33" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B34" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B36" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B39">
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B47" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B48" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B49" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B50" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B51" t="s">
+      <c r="D64" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B67" s="21" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>969</v>
+      </c>
+      <c r="C68" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B54" s="22" t="s">
-        <v>929</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>935</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B55" t="s">
-        <v>961</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B56" t="s">
-        <v>960</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B57" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="B60" s="21" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B61" t="s">
-        <v>983</v>
-      </c>
-      <c r="C61" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B62" t="s">
-        <v>978</v>
-      </c>
-      <c r="C62" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B63" t="s">
-        <v>982</v>
-      </c>
-      <c r="C63" t="s">
-        <v>981</v>
+      <c r="C69" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>968</v>
+      </c>
+      <c r="C70" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\joh\Joh\07 Dev\FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5CA35D-B6C4-4DF3-9E70-6420A93BD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CE05FB-F7EF-4F9D-9A27-971763CB1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OED Financial Fields supported'!$A$1:$F$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OED Financial Fields supported'!$A$1:$F$468</definedName>
     <definedName name="AreaaCode">'[1]AreaCode Values'!#REF!</definedName>
     <definedName name="BaseIsolation">'[1]Other Values'!#REF!</definedName>
     <definedName name="ContentVulnerability">'[1]Other Values'!#REF!</definedName>
@@ -39,7 +39,7 @@
     <definedName name="ValuableStorage">'[1]Other Values'!#REF!</definedName>
     <definedName name="WallSiding">'[1]Other Values'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1042">
   <si>
     <t>File Name</t>
   </si>
@@ -2837,9 +2837,6 @@
     <t>Where PolNumber is common to multiple layers, this field is required to uniquely identify a layer</t>
   </si>
   <si>
-    <t>All policy terms will be processed for all models regardless of the values in this field, but also see LocPerilsCovered</t>
-  </si>
-  <si>
     <t>Location minimum BI deductible</t>
   </si>
   <si>
@@ -3156,9 +3153,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>1.28.2</t>
-  </si>
-  <si>
     <t>Is the field supported by the OasisLMF financial module (Yes/No/N/A)</t>
   </si>
   <si>
@@ -3220,9 +3214,6 @@
   </si>
   <si>
     <t>PolDed6All, PolMinDed6All, PolMaxDed6All,PolLimit6All</t>
-  </si>
-  <si>
-    <t>AccDed6All, AccMinDed6All, AccMaxDed6All,AccLimit6All</t>
   </si>
   <si>
     <t>Pol All</t>
@@ -3261,6 +3252,36 @@
   </si>
   <si>
     <t>If no terms are present for a level, it is not included in the calculation hierarchy. However Levels 1 and 10 are always calculated, with passthrough rules where there are no terms.</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>1.28.4</t>
+  </si>
+  <si>
+    <t>AccParticipation</t>
+  </si>
+  <si>
+    <t>1.28.5</t>
+  </si>
+  <si>
+    <t>Insurance company share of the account loss. Values between 0 to 1 (e.g. 12% entered as 0.12)</t>
+  </si>
+  <si>
+    <t>CondDed{Cov}, CondMinDed{Cov}, CondMaxDed{Cov},CondLimit{Cov}</t>
+  </si>
+  <si>
+    <t>CondDed5PD, CondMinDed5PD, CondMaxDed5PD,CondLimit5PD</t>
+  </si>
+  <si>
+    <t>AccDed6All, AccMinDed6All, AccMaxDed6All,AccLimit6All, AccParticipation</t>
+  </si>
+  <si>
+    <t>Deductibles then limits then participation</t>
+  </si>
+  <si>
+    <t>Only supports Code=0 (default) and 2=Franchise</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3434,33 +3455,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3482,16 +3483,24 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3513,7 +3522,38 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3570,21 +3610,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}" name="Table1" displayName="Table1" ref="B11:F24" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}" name="Table1" displayName="Table1" ref="B11:F24" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B11:F24" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F54D3DF2-BE52-4E1D-BD85-D0DA017D7BF4}" name="FM Level description"/>
     <tableColumn id="2" xr3:uid="{2C83C4EB-10E0-4099-816E-79C13F70EFDB}" name="FM Level number"/>
     <tableColumn id="3" xr3:uid="{BD88269E-B3E5-4F89-B691-53999BF46AA6}" name="Order within level"/>
     <tableColumn id="4" xr3:uid="{99166E25-4626-4C86-8DC6-1B959057FB36}" name="Fields"/>
-    <tableColumn id="5" xr3:uid="{D20A3213-D190-4DDA-8F63-D6949F6E2625}" name="Coverages" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D20A3213-D190-4DDA-8F63-D6949F6E2625}" name="Coverages" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6469971-8D39-4286-92B0-35AF56E53524}" name="Table2" displayName="Table2" ref="B31:J36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6469971-8D39-4286-92B0-35AF56E53524}" name="Table2" displayName="Table2" ref="B31:J36" totalsRowShown="0" headerRowDxfId="5">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3DC44208-4263-4B76-B9BE-9DD3AE44F15A}" name="ReinsType"/>
     <tableColumn id="2" xr3:uid="{CA43E191-F45D-4A71-BB63-04252D492D37}" name="Description"/>
@@ -3601,7 +3641,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}" name="Table3" displayName="Table3" ref="B43:E52" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}" name="Table3" displayName="Table3" ref="B43:E52" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B43:E52" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B56E00E7-8372-43AD-BEDA-9425D4900CDA}" name="Cycle"/>
@@ -3614,9 +3654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3654,7 +3694,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3760,7 +3800,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3902,7 +3942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3913,7 +3953,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3924,35 +3964,35 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C6" s="19"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>1006</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -3960,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -3968,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -3976,23 +4016,23 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G13" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F14" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G14" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -4000,15 +4040,15 @@
         <v>908</v>
       </c>
       <c r="G15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="F17" t="s">
         <v>953</v>
-      </c>
-      <c r="F17" t="s">
-        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -4025,11 +4065,11 @@
   <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F467"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F443" sqref="F443"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4053,10 +4093,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>908</v>
@@ -4087,7 +4127,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4129,10 +4169,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4157,10 +4197,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4225,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,10 +4242,10 @@
         <v>910</v>
       </c>
       <c r="E11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F11" t="s">
         <v>1002</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4219,7 +4259,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4233,7 +4273,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4247,7 +4287,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4261,7 +4301,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4275,7 +4315,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4289,10 +4329,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4306,10 +4346,10 @@
         <v>909</v>
       </c>
       <c r="F18" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4363,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4337,7 +4377,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4391,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4365,7 +4405,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4379,7 +4419,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4393,7 +4433,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4407,7 +4447,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4421,7 +4461,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4435,7 +4475,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4489,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4463,7 +4503,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4477,7 +4517,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4491,7 +4531,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4545,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4559,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4533,7 +4573,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4547,7 +4587,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4561,7 +4601,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4575,7 +4615,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +4629,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +4643,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4657,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4631,7 +4671,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +4685,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4659,7 +4699,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4670,10 +4710,16 @@
         <v>91</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4687,10 +4733,10 @@
         <v>910</v>
       </c>
       <c r="E45" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4704,10 +4750,10 @@
         <v>910</v>
       </c>
       <c r="E46" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4721,10 +4767,10 @@
         <v>910</v>
       </c>
       <c r="E47" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4738,10 +4784,10 @@
         <v>910</v>
       </c>
       <c r="E48" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4801,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4769,7 +4815,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4829,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4797,7 +4843,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4811,7 +4857,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4825,7 +4871,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4839,7 +4885,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4853,7 +4899,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4867,7 +4913,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4927,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4895,7 +4941,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4909,7 +4955,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4923,7 +4969,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +4983,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4951,7 +4997,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4965,7 +5011,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4979,10 +5025,10 @@
         <v>910</v>
       </c>
       <c r="E65" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4996,10 +5042,10 @@
         <v>910</v>
       </c>
       <c r="E66" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5059,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -5027,7 +5073,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -5041,7 +5087,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -5055,7 +5101,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -5066,10 +5112,10 @@
         <v>145</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -5080,10 +5126,10 @@
         <v>147</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -5094,10 +5140,10 @@
         <v>149</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -5108,10 +5154,10 @@
         <v>151</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -5125,7 +5171,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -5136,13 +5182,13 @@
         <v>155</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F76" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -5153,10 +5199,10 @@
         <v>157</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -5167,10 +5213,10 @@
         <v>159</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -5181,10 +5227,10 @@
         <v>161</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -5195,7 +5241,7 @@
         <v>163</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5229,7 +5275,7 @@
         <v>910</v>
       </c>
       <c r="F82" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5246,7 +5292,7 @@
         <v>910</v>
       </c>
       <c r="F83" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,7 +5309,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -5274,10 +5320,10 @@
         <v>173</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -5288,13 +5334,13 @@
         <v>175</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F86" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -5305,7 +5351,13 @@
         <v>177</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5322,7 +5374,7 @@
         <v>910</v>
       </c>
       <c r="E88" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5339,7 +5391,7 @@
         <v>910</v>
       </c>
       <c r="E89" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5356,7 +5408,7 @@
         <v>910</v>
       </c>
       <c r="E90" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5373,10 +5425,10 @@
         <v>910</v>
       </c>
       <c r="E91" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5387,7 +5439,13 @@
         <v>187</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5404,7 +5462,7 @@
         <v>910</v>
       </c>
       <c r="E93" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5421,7 +5479,7 @@
         <v>910</v>
       </c>
       <c r="E94" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5438,7 +5496,7 @@
         <v>910</v>
       </c>
       <c r="E95" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5455,10 +5513,10 @@
         <v>910</v>
       </c>
       <c r="E96" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5469,10 +5527,16 @@
         <v>197</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5486,10 +5550,10 @@
         <v>910</v>
       </c>
       <c r="E98" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5503,10 +5567,10 @@
         <v>910</v>
       </c>
       <c r="E99" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5520,10 +5584,10 @@
         <v>910</v>
       </c>
       <c r="E100" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5537,10 +5601,10 @@
         <v>910</v>
       </c>
       <c r="E101" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5551,10 +5615,16 @@
         <v>207</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5568,10 +5638,10 @@
         <v>910</v>
       </c>
       <c r="E103" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5585,10 +5655,10 @@
         <v>910</v>
       </c>
       <c r="E104" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5602,10 +5672,10 @@
         <v>910</v>
       </c>
       <c r="E105" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5619,10 +5689,10 @@
         <v>910</v>
       </c>
       <c r="E106" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,10 +5703,16 @@
         <v>217</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5650,10 +5726,10 @@
         <v>910</v>
       </c>
       <c r="E108" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5667,10 +5743,10 @@
         <v>910</v>
       </c>
       <c r="E109" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5684,10 +5760,10 @@
         <v>910</v>
       </c>
       <c r="E110" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5701,10 +5777,10 @@
         <v>910</v>
       </c>
       <c r="E111" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5715,7 +5791,13 @@
         <v>227</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5774,7 +5856,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5802,7 +5884,7 @@
         <v>910</v>
       </c>
       <c r="E118" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5819,10 +5901,10 @@
         <v>910</v>
       </c>
       <c r="E119" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5850,7 +5932,7 @@
         <v>910</v>
       </c>
       <c r="E121" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5867,10 +5949,10 @@
         <v>910</v>
       </c>
       <c r="E122" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5980,7 @@
         <v>910</v>
       </c>
       <c r="E124" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -5915,10 +5997,10 @@
         <v>910</v>
       </c>
       <c r="E125" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +6028,7 @@
         <v>910</v>
       </c>
       <c r="E127" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5963,10 +6045,10 @@
         <v>910</v>
       </c>
       <c r="E128" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +6076,7 @@
         <v>910</v>
       </c>
       <c r="E130" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -6011,10 +6093,10 @@
         <v>910</v>
       </c>
       <c r="E131" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -6056,7 +6138,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -6067,7 +6149,7 @@
         <v>273</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -6420,7 +6502,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -6431,10 +6513,10 @@
         <v>325</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -6445,10 +6527,10 @@
         <v>327</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6459,10 +6541,10 @@
         <v>329</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -6473,10 +6555,10 @@
         <v>331</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -6487,10 +6569,10 @@
         <v>331</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -6501,10 +6583,10 @@
         <v>331</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -6515,10 +6597,10 @@
         <v>331</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -6529,10 +6611,10 @@
         <v>331</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -6543,7 +6625,7 @@
         <v>337</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>1005</v>
+        <v>910</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -6551,10 +6633,10 @@
         <v>3</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>971</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>910</v>
@@ -6568,7 +6650,7 @@
         <v>338</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>910</v>
@@ -6582,7 +6664,7 @@
         <v>339</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>910</v>
@@ -6602,7 +6684,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6613,13 +6695,13 @@
         <v>343</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F174" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6630,7 +6712,13 @@
         <v>345</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -6646,8 +6734,11 @@
       <c r="D176" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6658,10 +6749,13 @@
         <v>349</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6672,10 +6766,13 @@
         <v>351</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6686,10 +6783,13 @@
         <v>353</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6700,10 +6800,16 @@
         <v>355</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6714,10 +6820,13 @@
         <v>357</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6728,10 +6837,13 @@
         <v>359</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6742,10 +6854,13 @@
         <v>361</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6756,10 +6871,13 @@
         <v>363</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6770,10 +6888,16 @@
         <v>365</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6784,10 +6908,13 @@
         <v>367</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6798,10 +6925,13 @@
         <v>369</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6812,10 +6942,13 @@
         <v>371</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6826,10 +6959,13 @@
         <v>373</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6840,10 +6976,16 @@
         <v>375</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6854,10 +6996,13 @@
         <v>377</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6868,10 +7013,13 @@
         <v>379</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6882,10 +7030,13 @@
         <v>381</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6896,10 +7047,13 @@
         <v>383</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6910,10 +7064,16 @@
         <v>385</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6924,10 +7084,13 @@
         <v>387</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6938,10 +7101,13 @@
         <v>389</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6952,10 +7118,13 @@
         <v>391</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6966,10 +7135,13 @@
         <v>393</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6980,7 +7152,13 @@
         <v>395</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,7 +7189,7 @@
         <v>910</v>
       </c>
       <c r="F202" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -7028,7 +7206,7 @@
         <v>910</v>
       </c>
       <c r="F203" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -7045,10 +7223,10 @@
         <v>910</v>
       </c>
       <c r="F204" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -7062,7 +7240,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -7073,10 +7251,13 @@
         <v>407</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -7087,10 +7268,13 @@
         <v>409</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -7104,7 +7288,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -7115,10 +7299,13 @@
         <v>413</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -7129,10 +7316,13 @@
         <v>415</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7336,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -7157,10 +7347,13 @@
         <v>419</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -7171,10 +7364,13 @@
         <v>421</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -7188,7 +7384,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -7199,10 +7395,13 @@
         <v>425</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -7213,10 +7412,13 @@
         <v>427</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -7230,7 +7432,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -7241,10 +7443,13 @@
         <v>431</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -7255,10 +7460,13 @@
         <v>433</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -7300,7 +7508,7 @@
         <v>910</v>
       </c>
       <c r="F222" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7314,7 +7522,7 @@
         <v>442</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7328,7 +7536,7 @@
         <v>444</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7342,7 +7550,7 @@
         <v>446</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7356,7 +7564,7 @@
         <v>448</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7370,7 +7578,7 @@
         <v>450</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7384,7 +7592,7 @@
         <v>452</v>
       </c>
       <c r="D228" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7398,7 +7606,7 @@
         <v>454</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7412,7 +7620,7 @@
         <v>456</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7426,7 +7634,7 @@
         <v>458</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7440,7 +7648,7 @@
         <v>460</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -7454,7 +7662,7 @@
         <v>462</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7468,7 +7676,7 @@
         <v>464</v>
       </c>
       <c r="D234" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7482,7 +7690,7 @@
         <v>466</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7496,7 +7704,7 @@
         <v>468</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7510,7 +7718,7 @@
         <v>470</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7524,7 +7732,7 @@
         <v>472</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7746,7 @@
         <v>473</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7552,7 +7760,7 @@
         <v>475</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7566,7 +7774,7 @@
         <v>477</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7580,7 +7788,7 @@
         <v>479</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7594,7 +7802,7 @@
         <v>481</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7608,7 +7816,7 @@
         <v>479</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7622,7 +7830,7 @@
         <v>481</v>
       </c>
       <c r="D245" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7636,7 +7844,7 @@
         <v>479</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7650,7 +7858,7 @@
         <v>481</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7664,7 +7872,7 @@
         <v>479</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7678,7 +7886,7 @@
         <v>481</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7692,7 +7900,7 @@
         <v>479</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7706,7 +7914,7 @@
         <v>481</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7720,7 +7928,7 @@
         <v>491</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7734,7 +7942,7 @@
         <v>493</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7748,7 +7956,7 @@
         <v>495</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7762,7 +7970,7 @@
         <v>497</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7776,7 +7984,7 @@
         <v>499</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7790,7 +7998,7 @@
         <v>501</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7804,7 +8012,7 @@
         <v>503</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7818,7 +8026,7 @@
         <v>505</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7832,7 +8040,7 @@
         <v>507</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7846,7 +8054,7 @@
         <v>509</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7860,7 +8068,7 @@
         <v>511</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7874,7 +8082,7 @@
         <v>513</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7888,7 +8096,7 @@
         <v>515</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7902,7 +8110,7 @@
         <v>517</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7916,7 +8124,7 @@
         <v>519</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7930,7 +8138,7 @@
         <v>521</v>
       </c>
       <c r="D267" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7944,7 +8152,7 @@
         <v>523</v>
       </c>
       <c r="D268" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7958,7 +8166,7 @@
         <v>525</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7972,7 +8180,7 @@
         <v>527</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7986,7 +8194,7 @@
         <v>529</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,7 +8211,7 @@
         <v>910</v>
       </c>
       <c r="F272" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -8065,10 +8273,10 @@
         <v>910</v>
       </c>
       <c r="F276" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
@@ -8096,13 +8304,13 @@
         <v>910</v>
       </c>
       <c r="E278" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F278" t="s">
         <v>1002</v>
       </c>
-      <c r="F278" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>440</v>
       </c>
@@ -8116,7 +8324,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>440</v>
       </c>
@@ -8130,7 +8338,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>440</v>
       </c>
@@ -8144,7 +8352,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>440</v>
       </c>
@@ -8158,7 +8366,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>440</v>
       </c>
@@ -8172,7 +8380,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>440</v>
       </c>
@@ -8186,7 +8394,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>440</v>
       </c>
@@ -8211,10 +8419,10 @@
         <v>559</v>
       </c>
       <c r="D286" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>440</v>
       </c>
@@ -8225,7 +8433,13 @@
         <v>561</v>
       </c>
       <c r="D287" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -8242,7 +8456,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>440</v>
       </c>
@@ -8256,7 +8470,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>440</v>
       </c>
@@ -8270,7 +8484,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>440</v>
       </c>
@@ -8284,7 +8498,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>440</v>
       </c>
@@ -8295,10 +8509,16 @@
         <v>571</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>440</v>
       </c>
@@ -8312,7 +8532,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>440</v>
       </c>
@@ -8326,7 +8546,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>440</v>
       </c>
@@ -8340,7 +8560,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>440</v>
       </c>
@@ -8354,7 +8574,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -8365,10 +8585,16 @@
         <v>581</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>440</v>
       </c>
@@ -8382,7 +8608,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>440</v>
       </c>
@@ -8396,7 +8622,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>440</v>
       </c>
@@ -8410,7 +8636,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>440</v>
       </c>
@@ -8424,7 +8650,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>440</v>
       </c>
@@ -8435,10 +8661,16 @@
         <v>591</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>440</v>
       </c>
@@ -8452,7 +8684,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>440</v>
       </c>
@@ -8466,7 +8698,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>440</v>
       </c>
@@ -8474,13 +8706,13 @@
         <v>596</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D305" s="16" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>440</v>
       </c>
@@ -8488,13 +8720,13 @@
         <v>597</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D306" s="16" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>440</v>
       </c>
@@ -8505,10 +8737,16 @@
         <v>599</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>440</v>
       </c>
@@ -8522,7 +8760,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>440</v>
       </c>
@@ -8536,7 +8774,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>440</v>
       </c>
@@ -8550,7 +8788,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>440</v>
       </c>
@@ -8564,7 +8802,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>440</v>
       </c>
@@ -8575,10 +8813,16 @@
         <v>609</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>440</v>
       </c>
@@ -8592,7 +8836,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>440</v>
       </c>
@@ -8606,7 +8850,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>440</v>
       </c>
@@ -8620,7 +8864,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>440</v>
       </c>
@@ -8634,7 +8878,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>440</v>
       </c>
@@ -8648,7 +8892,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -8662,7 +8906,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>440</v>
       </c>
@@ -8676,7 +8920,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>440</v>
       </c>
@@ -8690,7 +8934,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>440</v>
       </c>
@@ -8704,7 +8948,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>440</v>
       </c>
@@ -8718,7 +8962,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>440</v>
       </c>
@@ -8732,7 +8976,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>440</v>
       </c>
@@ -8746,7 +8990,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>440</v>
       </c>
@@ -8760,7 +9004,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>440</v>
       </c>
@@ -8774,7 +9018,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>440</v>
       </c>
@@ -8788,7 +9032,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>440</v>
       </c>
@@ -8802,7 +9046,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>440</v>
       </c>
@@ -8816,7 +9060,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>440</v>
       </c>
@@ -8830,7 +9074,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>440</v>
       </c>
@@ -8844,7 +9088,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>440</v>
       </c>
@@ -8858,7 +9102,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>440</v>
       </c>
@@ -8872,7 +9116,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>440</v>
       </c>
@@ -8886,7 +9130,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>440</v>
       </c>
@@ -8900,7 +9144,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>440</v>
       </c>
@@ -8911,13 +9155,13 @@
         <v>657</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F336" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>440</v>
       </c>
@@ -8928,10 +9172,10 @@
         <v>659</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>440</v>
       </c>
@@ -8942,10 +9186,10 @@
         <v>661</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>440</v>
       </c>
@@ -8956,10 +9200,10 @@
         <v>663</v>
       </c>
       <c r="D339" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>440</v>
       </c>
@@ -8970,10 +9214,10 @@
         <v>665</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>440</v>
       </c>
@@ -8984,10 +9228,10 @@
         <v>667</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>440</v>
       </c>
@@ -8998,10 +9242,10 @@
         <v>669</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>440</v>
       </c>
@@ -9012,10 +9256,10 @@
         <v>671</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>440</v>
       </c>
@@ -9026,10 +9270,10 @@
         <v>673</v>
       </c>
       <c r="D344" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>440</v>
       </c>
@@ -9040,10 +9284,10 @@
         <v>675</v>
       </c>
       <c r="D345" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>440</v>
       </c>
@@ -9054,10 +9298,10 @@
         <v>677</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>440</v>
       </c>
@@ -9068,10 +9312,10 @@
         <v>679</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>440</v>
       </c>
@@ -9082,10 +9326,10 @@
         <v>681</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>440</v>
       </c>
@@ -9096,10 +9340,10 @@
         <v>683</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>440</v>
       </c>
@@ -9110,10 +9354,10 @@
         <v>685</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>440</v>
       </c>
@@ -9124,10 +9368,10 @@
         <v>687</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>440</v>
       </c>
@@ -9138,10 +9382,10 @@
         <v>689</v>
       </c>
       <c r="D352" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>440</v>
       </c>
@@ -9152,10 +9396,10 @@
         <v>691</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>440</v>
       </c>
@@ -9166,10 +9410,10 @@
         <v>693</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>440</v>
       </c>
@@ -9180,10 +9424,10 @@
         <v>695</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>440</v>
       </c>
@@ -9194,10 +9438,10 @@
         <v>697</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>440</v>
       </c>
@@ -9208,10 +9452,10 @@
         <v>699</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>440</v>
       </c>
@@ -9222,10 +9466,10 @@
         <v>701</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>440</v>
       </c>
@@ -9236,10 +9480,10 @@
         <v>703</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>440</v>
       </c>
@@ -9250,10 +9494,10 @@
         <v>705</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>440</v>
       </c>
@@ -9264,10 +9508,10 @@
         <v>707</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>440</v>
       </c>
@@ -9278,10 +9522,10 @@
         <v>709</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>440</v>
       </c>
@@ -9292,10 +9536,10 @@
         <v>711</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>440</v>
       </c>
@@ -9306,10 +9550,10 @@
         <v>713</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>440</v>
       </c>
@@ -9320,10 +9564,10 @@
         <v>715</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>440</v>
       </c>
@@ -9334,10 +9578,10 @@
         <v>717</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>440</v>
       </c>
@@ -9348,10 +9592,10 @@
         <v>719</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>440</v>
       </c>
@@ -9362,10 +9606,10 @@
         <v>721</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>440</v>
       </c>
@@ -9376,10 +9620,10 @@
         <v>723</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>440</v>
       </c>
@@ -9390,10 +9634,10 @@
         <v>725</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>440</v>
       </c>
@@ -9404,10 +9648,10 @@
         <v>727</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>440</v>
       </c>
@@ -9418,10 +9662,10 @@
         <v>729</v>
       </c>
       <c r="D372" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>440</v>
       </c>
@@ -9432,10 +9676,10 @@
         <v>731</v>
       </c>
       <c r="D373" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>440</v>
       </c>
@@ -9446,10 +9690,10 @@
         <v>733</v>
       </c>
       <c r="D374" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>440</v>
       </c>
@@ -9460,10 +9704,10 @@
         <v>735</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>440</v>
       </c>
@@ -9474,10 +9718,10 @@
         <v>737</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>440</v>
       </c>
@@ -9488,10 +9732,10 @@
         <v>739</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>440</v>
       </c>
@@ -9502,10 +9746,10 @@
         <v>741</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>440</v>
       </c>
@@ -9516,10 +9760,10 @@
         <v>743</v>
       </c>
       <c r="D379" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>440</v>
       </c>
@@ -9530,10 +9774,10 @@
         <v>745</v>
       </c>
       <c r="D380" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>440</v>
       </c>
@@ -9544,10 +9788,10 @@
         <v>747</v>
       </c>
       <c r="D381" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>440</v>
       </c>
@@ -9558,10 +9802,10 @@
         <v>749</v>
       </c>
       <c r="D382" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -9572,10 +9816,10 @@
         <v>751</v>
       </c>
       <c r="D383" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>440</v>
       </c>
@@ -9586,10 +9830,10 @@
         <v>753</v>
       </c>
       <c r="D384" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>440</v>
       </c>
@@ -9600,10 +9844,10 @@
         <v>755</v>
       </c>
       <c r="D385" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>440</v>
       </c>
@@ -9614,10 +9858,10 @@
         <v>757</v>
       </c>
       <c r="D386" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>440</v>
       </c>
@@ -9628,10 +9872,10 @@
         <v>759</v>
       </c>
       <c r="D387" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>440</v>
       </c>
@@ -9642,10 +9886,10 @@
         <v>761</v>
       </c>
       <c r="D388" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>440</v>
       </c>
@@ -9656,10 +9900,10 @@
         <v>763</v>
       </c>
       <c r="D389" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>440</v>
       </c>
@@ -9670,10 +9914,10 @@
         <v>765</v>
       </c>
       <c r="D390" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>440</v>
       </c>
@@ -9684,10 +9928,10 @@
         <v>767</v>
       </c>
       <c r="D391" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>440</v>
       </c>
@@ -9698,10 +9942,10 @@
         <v>769</v>
       </c>
       <c r="D392" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>440</v>
       </c>
@@ -9712,10 +9956,10 @@
         <v>771</v>
       </c>
       <c r="D393" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>440</v>
       </c>
@@ -9726,10 +9970,10 @@
         <v>773</v>
       </c>
       <c r="D394" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>440</v>
       </c>
@@ -9740,10 +9984,10 @@
         <v>775</v>
       </c>
       <c r="D395" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>440</v>
       </c>
@@ -9754,10 +9998,10 @@
         <v>777</v>
       </c>
       <c r="D396" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>440</v>
       </c>
@@ -9768,10 +10012,10 @@
         <v>779</v>
       </c>
       <c r="D397" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>440</v>
       </c>
@@ -9782,10 +10026,10 @@
         <v>781</v>
       </c>
       <c r="D398" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>440</v>
       </c>
@@ -9796,10 +10040,10 @@
         <v>783</v>
       </c>
       <c r="D399" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>440</v>
       </c>
@@ -9810,10 +10054,10 @@
         <v>785</v>
       </c>
       <c r="D400" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>440</v>
       </c>
@@ -9824,10 +10068,10 @@
         <v>787</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>440</v>
       </c>
@@ -9838,10 +10082,10 @@
         <v>789</v>
       </c>
       <c r="D402" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>440</v>
       </c>
@@ -9852,10 +10096,10 @@
         <v>791</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>440</v>
       </c>
@@ -9866,10 +10110,10 @@
         <v>793</v>
       </c>
       <c r="D404" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
@@ -9880,10 +10124,10 @@
         <v>795</v>
       </c>
       <c r="D405" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>440</v>
       </c>
@@ -9894,10 +10138,10 @@
         <v>797</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>440</v>
       </c>
@@ -9908,10 +10152,10 @@
         <v>799</v>
       </c>
       <c r="D407" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>440</v>
       </c>
@@ -9922,10 +10166,10 @@
         <v>801</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>440</v>
       </c>
@@ -9936,10 +10180,10 @@
         <v>803</v>
       </c>
       <c r="D409" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>440</v>
       </c>
@@ -9950,10 +10194,10 @@
         <v>805</v>
       </c>
       <c r="D410" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>440</v>
       </c>
@@ -9964,10 +10208,10 @@
         <v>807</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>440</v>
       </c>
@@ -9978,10 +10222,10 @@
         <v>809</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>440</v>
       </c>
@@ -9992,10 +10236,10 @@
         <v>811</v>
       </c>
       <c r="D413" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>440</v>
       </c>
@@ -10006,10 +10250,10 @@
         <v>813</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>440</v>
       </c>
@@ -10020,10 +10264,10 @@
         <v>815</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>440</v>
       </c>
@@ -10034,10 +10278,10 @@
         <v>817</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>440</v>
       </c>
@@ -10048,10 +10292,10 @@
         <v>819</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>440</v>
       </c>
@@ -10062,10 +10306,10 @@
         <v>821</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>440</v>
       </c>
@@ -10076,10 +10320,10 @@
         <v>823</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>440</v>
       </c>
@@ -10090,10 +10334,10 @@
         <v>825</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
@@ -10104,10 +10348,10 @@
         <v>827</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>440</v>
       </c>
@@ -10118,10 +10362,10 @@
         <v>829</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>440</v>
       </c>
@@ -10132,10 +10376,10 @@
         <v>831</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>832</v>
       </c>
@@ -10149,7 +10393,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>832</v>
       </c>
@@ -10163,7 +10407,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>832</v>
       </c>
@@ -10177,7 +10421,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>832</v>
       </c>
@@ -10188,13 +10432,13 @@
         <v>840</v>
       </c>
       <c r="D427" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F427" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>832</v>
       </c>
@@ -10208,7 +10452,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>832</v>
       </c>
@@ -10222,7 +10466,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>832</v>
       </c>
@@ -10236,7 +10480,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>832</v>
       </c>
@@ -10250,7 +10494,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>832</v>
       </c>
@@ -10278,7 +10522,7 @@
         <v>910</v>
       </c>
       <c r="F433" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -10295,10 +10539,10 @@
         <v>910</v>
       </c>
       <c r="F434" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>832</v>
       </c>
@@ -10312,7 +10556,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>832</v>
       </c>
@@ -10326,7 +10570,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
@@ -10340,7 +10584,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>832</v>
       </c>
@@ -10354,7 +10598,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>832</v>
       </c>
@@ -10396,10 +10640,10 @@
         <v>910</v>
       </c>
       <c r="E441" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F441" t="s">
         <v>1002</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10430,7 +10674,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>832</v>
       </c>
@@ -10444,7 +10688,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>832</v>
       </c>
@@ -10458,7 +10702,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="446" spans="1:6" s="9" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>832</v>
       </c>
@@ -10472,7 +10716,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>832</v>
       </c>
@@ -10486,7 +10730,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>832</v>
       </c>
@@ -10500,7 +10744,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>832</v>
       </c>
@@ -10514,7 +10758,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>832</v>
       </c>
@@ -10528,7 +10772,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="45.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>832</v>
       </c>
@@ -10598,7 +10842,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>889</v>
       </c>
@@ -10626,7 +10870,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>889</v>
       </c>
@@ -10640,7 +10884,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>889</v>
       </c>
@@ -10654,7 +10898,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="32.700000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>889</v>
       </c>
@@ -10668,7 +10912,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="23.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>889</v>
       </c>
@@ -10682,7 +10926,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>889</v>
       </c>
@@ -10710,7 +10954,7 @@
         <v>910</v>
       </c>
       <c r="F463" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10727,7 +10971,7 @@
         <v>910</v>
       </c>
       <c r="F464" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -10741,7 +10985,7 @@
         <v>905</v>
       </c>
       <c r="D465" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10758,32 +11002,53 @@
         <v>910</v>
       </c>
       <c r="E466" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F466" t="s">
-        <v>975</v>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A467" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D467" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F466" xr:uid="{365A42DD-2054-40BA-A16F-280F201D1D70}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="**"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:F468" xr:uid="{365A42DD-2054-40BA-A16F-280F201D1D70}">
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
+        <filter val="No"/>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="D467:D468">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D467)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D467)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:E466">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E466">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10992,15 +11257,15 @@
   <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -11010,7 +11275,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.5">
@@ -11018,75 +11283,75 @@
     </row>
     <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>924</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>925</v>
-      </c>
       <c r="E11" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F13" s="20">
         <v>5</v>
@@ -11094,67 +11359,67 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F14" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" t="s">
+        <v>925</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>1010</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="D16" t="s">
+        <v>925</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F16" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F17" s="20">
         <v>6</v>
@@ -11162,33 +11427,33 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E19" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F19" s="20">
         <v>5</v>
@@ -11196,16 +11461,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F20" s="20">
         <v>6</v>
@@ -11213,16 +11478,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>6</v>
@@ -11230,33 +11495,33 @@
     </row>
     <row r="22" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C22" s="26">
         <v>11</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C23" s="26">
         <v>12</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F23" s="27">
         <v>5</v>
@@ -11264,16 +11529,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>926</v>
+        <v>1040</v>
       </c>
       <c r="E24" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="F24" s="20">
         <v>6</v>
@@ -11287,192 +11552,185 @@
     </row>
     <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
+      <c r="B31" t="s">
         <v>871</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" t="s">
+        <v>980</v>
+      </c>
+      <c r="D31" t="s">
+        <v>845</v>
+      </c>
+      <c r="E31" t="s">
+        <v>849</v>
+      </c>
+      <c r="F31" t="s">
+        <v>847</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C32" t="s">
         <v>981</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>902</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>853</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>851</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="D32" t="s">
+        <v>987</v>
+      </c>
+      <c r="E32" t="s">
+        <v>987</v>
+      </c>
+      <c r="F32" t="s">
+        <v>987</v>
+      </c>
+      <c r="G32" t="s">
+        <v>987</v>
+      </c>
+      <c r="J32" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>975</v>
+      </c>
+      <c r="C33" t="s">
+        <v>982</v>
+      </c>
+      <c r="D33" t="s">
+        <v>987</v>
+      </c>
+      <c r="F33" t="s">
+        <v>987</v>
+      </c>
+      <c r="H33" t="s">
+        <v>987</v>
+      </c>
+      <c r="I33" t="s">
+        <v>987</v>
+      </c>
+      <c r="J33" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>976</v>
+      </c>
+      <c r="C34" t="s">
+        <v>983</v>
+      </c>
+      <c r="D34" t="s">
+        <v>988</v>
+      </c>
+      <c r="E34" t="s">
+        <v>987</v>
+      </c>
+      <c r="F34" t="s">
+        <v>987</v>
+      </c>
+      <c r="G34" t="s">
+        <v>987</v>
+      </c>
+      <c r="I34" t="s">
+        <v>987</v>
+      </c>
+      <c r="J34" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>978</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>982</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="G32" t="s">
-        <v>988</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>983</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="28" t="s">
-        <v>977</v>
-      </c>
-      <c r="C34" s="28" t="s">
+      <c r="C35" t="s">
+        <v>985</v>
+      </c>
+      <c r="D35" t="s">
+        <v>987</v>
+      </c>
+      <c r="E35" t="s">
+        <v>987</v>
+      </c>
+      <c r="F35" t="s">
+        <v>987</v>
+      </c>
+      <c r="G35" t="s">
+        <v>987</v>
+      </c>
+      <c r="I35" t="s">
+        <v>987</v>
+      </c>
+      <c r="J35" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>979</v>
+      </c>
+      <c r="C36" t="s">
         <v>984</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>989</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="G34" t="s">
-        <v>988</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>979</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>986</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="G35" t="s">
-        <v>988</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
-        <v>980</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>985</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="H36" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>988</v>
+      <c r="D36" t="s">
+        <v>987</v>
+      </c>
+      <c r="H36" t="s">
+        <v>987</v>
+      </c>
+      <c r="I36" t="s">
+        <v>987</v>
+      </c>
+      <c r="J36" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>928</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>929</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>871</v>
@@ -11486,10 +11744,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
@@ -11500,10 +11758,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E45" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
@@ -11514,10 +11772,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E46" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -11528,10 +11786,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E47" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -11542,10 +11800,10 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E48" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -11556,10 +11814,10 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E49" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -11570,10 +11828,10 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E50" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -11584,10 +11842,10 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E51" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -11598,48 +11856,48 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="22" t="s">
         <v>924</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -11647,53 +11905,53 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C68" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C69" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C70" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\joh\Joh\07 Dev\FM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joh\dev\OasisLMF_dev\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CE05FB-F7EF-4F9D-9A27-971763CB1572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E1899-E60D-4685-81BA-F79BC3E2DA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1043">
   <si>
     <t>File Name</t>
   </si>
@@ -3282,6 +3282,9 @@
   </si>
   <si>
     <t>Only supports Code=0 (default) and 2=Franchise</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
   </si>
 </sst>
 </file>
@@ -3953,7 +3956,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3979,7 +3982,7 @@
       <c r="C6" s="19"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -11256,9 +11259,7 @@
   </sheetPr>
   <dimension ref="B2:J70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11680,6 +11681,9 @@
       <c r="G35" t="s">
         <v>987</v>
       </c>
+      <c r="H35" t="s">
+        <v>987</v>
+      </c>
       <c r="I35" t="s">
         <v>987</v>
       </c>

--- a/docs/OED_financial_terms_supported.xlsx
+++ b/docs/OED_financial_terms_supported.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\joh\dev\OasisLMF_dev\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5CA35D-B6C4-4DF3-9E70-6420A93BD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2E1899-E60D-4685-81BA-F79BC3E2DA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E539D7C-9D32-4C67-A2B8-662594CF78CB}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OED Financial Fields supported'!$A$1:$F$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OED Financial Fields supported'!$A$1:$F$468</definedName>
     <definedName name="AreaaCode">'[1]AreaCode Values'!#REF!</definedName>
     <definedName name="BaseIsolation">'[1]Other Values'!#REF!</definedName>
     <definedName name="ContentVulnerability">'[1]Other Values'!#REF!</definedName>
@@ -39,7 +39,7 @@
     <definedName name="ValuableStorage">'[1]Other Values'!#REF!</definedName>
     <definedName name="WallSiding">'[1]Other Values'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1043">
   <si>
     <t>File Name</t>
   </si>
@@ -2837,9 +2837,6 @@
     <t>Where PolNumber is common to multiple layers, this field is required to uniquely identify a layer</t>
   </si>
   <si>
-    <t>All policy terms will be processed for all models regardless of the values in this field, but also see LocPerilsCovered</t>
-  </si>
-  <si>
     <t>Location minimum BI deductible</t>
   </si>
   <si>
@@ -3156,9 +3153,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>1.28.2</t>
-  </si>
-  <si>
     <t>Is the field supported by the OasisLMF financial module (Yes/No/N/A)</t>
   </si>
   <si>
@@ -3220,9 +3214,6 @@
   </si>
   <si>
     <t>PolDed6All, PolMinDed6All, PolMaxDed6All,PolLimit6All</t>
-  </si>
-  <si>
-    <t>AccDed6All, AccMinDed6All, AccMaxDed6All,AccLimit6All</t>
   </si>
   <si>
     <t>Pol All</t>
@@ -3261,6 +3252,39 @@
   </si>
   <si>
     <t>If no terms are present for a level, it is not included in the calculation hierarchy. However Levels 1 and 10 are always calculated, with passthrough rules where there are no terms.</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>1.28.4</t>
+  </si>
+  <si>
+    <t>AccParticipation</t>
+  </si>
+  <si>
+    <t>1.28.5</t>
+  </si>
+  <si>
+    <t>Insurance company share of the account loss. Values between 0 to 1 (e.g. 12% entered as 0.12)</t>
+  </si>
+  <si>
+    <t>CondDed{Cov}, CondMinDed{Cov}, CondMaxDed{Cov},CondLimit{Cov}</t>
+  </si>
+  <si>
+    <t>CondDed5PD, CondMinDed5PD, CondMaxDed5PD,CondLimit5PD</t>
+  </si>
+  <si>
+    <t>AccDed6All, AccMinDed6All, AccMaxDed6All,AccLimit6All, AccParticipation</t>
+  </si>
+  <si>
+    <t>Deductibles then limits then participation</t>
+  </si>
+  <si>
+    <t>Only supports Code=0 (default) and 2=Franchise</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3434,33 +3458,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3482,16 +3486,24 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3513,7 +3525,38 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3570,21 +3613,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}" name="Table1" displayName="Table1" ref="B11:F24" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}" name="Table1" displayName="Table1" ref="B11:F24" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B11:F24" xr:uid="{E107FFF8-4958-41C9-8284-646E397D8031}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F54D3DF2-BE52-4E1D-BD85-D0DA017D7BF4}" name="FM Level description"/>
     <tableColumn id="2" xr3:uid="{2C83C4EB-10E0-4099-816E-79C13F70EFDB}" name="FM Level number"/>
     <tableColumn id="3" xr3:uid="{BD88269E-B3E5-4F89-B691-53999BF46AA6}" name="Order within level"/>
     <tableColumn id="4" xr3:uid="{99166E25-4626-4C86-8DC6-1B959057FB36}" name="Fields"/>
-    <tableColumn id="5" xr3:uid="{D20A3213-D190-4DDA-8F63-D6949F6E2625}" name="Coverages" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D20A3213-D190-4DDA-8F63-D6949F6E2625}" name="Coverages" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6469971-8D39-4286-92B0-35AF56E53524}" name="Table2" displayName="Table2" ref="B31:J36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B6469971-8D39-4286-92B0-35AF56E53524}" name="Table2" displayName="Table2" ref="B31:J36" totalsRowShown="0" headerRowDxfId="5">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3DC44208-4263-4B76-B9BE-9DD3AE44F15A}" name="ReinsType"/>
     <tableColumn id="2" xr3:uid="{CA43E191-F45D-4A71-BB63-04252D492D37}" name="Description"/>
@@ -3601,7 +3644,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}" name="Table3" displayName="Table3" ref="B43:E52" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}" name="Table3" displayName="Table3" ref="B43:E52" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B43:E52" xr:uid="{2F5F0767-1CC1-4406-A2D0-918B0E8C503A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B56E00E7-8372-43AD-BEDA-9425D4900CDA}" name="Cycle"/>
@@ -3614,9 +3657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3654,7 +3697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3760,7 +3803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3902,7 +3945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3913,7 +3956,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3924,35 +3967,35 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C6" s="19"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>1006</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -3960,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -3968,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -3976,23 +4019,23 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G13" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F14" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G14" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -4000,15 +4043,15 @@
         <v>908</v>
       </c>
       <c r="G15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="F17" t="s">
         <v>953</v>
-      </c>
-      <c r="F17" t="s">
-        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -4025,11 +4068,11 @@
   <sheetPr filterMode="1">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F467"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F443" sqref="F443"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4053,10 +4096,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>908</v>
@@ -4087,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4144,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4129,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4157,10 +4200,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,10 +4245,10 @@
         <v>910</v>
       </c>
       <c r="E11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F11" t="s">
         <v>1002</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4219,7 +4262,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4233,7 +4276,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4247,7 +4290,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4261,7 +4304,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4275,7 +4318,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4289,10 +4332,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4306,10 +4349,10 @@
         <v>909</v>
       </c>
       <c r="F18" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4366,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4337,7 +4380,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4351,7 +4394,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -4365,7 +4408,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4379,7 +4422,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -4393,7 +4436,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -4407,7 +4450,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4421,7 +4464,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -4435,7 +4478,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -4463,7 +4506,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4477,7 +4520,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -4491,7 +4534,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4548,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4562,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -4533,7 +4576,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -4547,7 +4590,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -4561,7 +4604,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -4575,7 +4618,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -4589,7 +4632,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4660,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -4631,7 +4674,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +4688,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -4659,7 +4702,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -4670,10 +4713,16 @@
         <v>91</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -4687,10 +4736,10 @@
         <v>910</v>
       </c>
       <c r="E45" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -4704,10 +4753,10 @@
         <v>910</v>
       </c>
       <c r="E46" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -4721,10 +4770,10 @@
         <v>910</v>
       </c>
       <c r="E47" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -4738,10 +4787,10 @@
         <v>910</v>
       </c>
       <c r="E48" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4804,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -4769,7 +4818,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4832,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -4797,7 +4846,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -4811,7 +4860,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -4825,7 +4874,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
@@ -4839,7 +4888,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -4853,7 +4902,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4867,7 +4916,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>7</v>
       </c>
@@ -4881,7 +4930,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -4895,7 +4944,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -4909,7 +4958,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>7</v>
       </c>
@@ -4923,7 +4972,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +4986,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -4951,7 +5000,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -4965,7 +5014,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -4979,10 +5028,10 @@
         <v>910</v>
       </c>
       <c r="E65" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -4996,10 +5045,10 @@
         <v>910</v>
       </c>
       <c r="E66" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5062,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -5027,7 +5076,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -5041,7 +5090,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>7</v>
       </c>
@@ -5055,7 +5104,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -5066,10 +5115,10 @@
         <v>145</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>7</v>
       </c>
@@ -5080,10 +5129,10 @@
         <v>147</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -5094,10 +5143,10 @@
         <v>149</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -5108,10 +5157,10 @@
         <v>151</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -5125,7 +5174,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -5136,13 +5185,13 @@
         <v>155</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F76" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -5153,10 +5202,10 @@
         <v>157</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -5167,10 +5216,10 @@
         <v>159</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -5181,10 +5230,10 @@
         <v>161</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -5195,7 +5244,7 @@
         <v>163</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5229,7 +5278,7 @@
         <v>910</v>
       </c>
       <c r="F82" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5246,7 +5295,7 @@
         <v>910</v>
       </c>
       <c r="F83" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,7 +5312,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -5274,10 +5323,10 @@
         <v>173</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -5288,13 +5337,13 @@
         <v>175</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F86" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -5305,7 +5354,13 @@
         <v>177</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5322,7 +5377,7 @@
         <v>910</v>
       </c>
       <c r="E88" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5339,7 +5394,7 @@
         <v>910</v>
       </c>
       <c r="E89" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5356,7 +5411,7 @@
         <v>910</v>
       </c>
       <c r="E90" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5373,10 +5428,10 @@
         <v>910</v>
       </c>
       <c r="E91" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5387,7 +5442,13 @@
         <v>187</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5404,7 +5465,7 @@
         <v>910</v>
       </c>
       <c r="E93" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5421,7 +5482,7 @@
         <v>910</v>
       </c>
       <c r="E94" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5438,7 +5499,7 @@
         <v>910</v>
       </c>
       <c r="E95" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5455,10 +5516,10 @@
         <v>910</v>
       </c>
       <c r="E96" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5469,10 +5530,16 @@
         <v>197</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5486,10 +5553,10 @@
         <v>910</v>
       </c>
       <c r="E98" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5503,10 +5570,10 @@
         <v>910</v>
       </c>
       <c r="E99" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5520,10 +5587,10 @@
         <v>910</v>
       </c>
       <c r="E100" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5537,10 +5604,10 @@
         <v>910</v>
       </c>
       <c r="E101" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5551,10 +5618,16 @@
         <v>207</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5568,10 +5641,10 @@
         <v>910</v>
       </c>
       <c r="E103" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5585,10 +5658,10 @@
         <v>910</v>
       </c>
       <c r="E104" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5602,10 +5675,10 @@
         <v>910</v>
       </c>
       <c r="E105" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5619,10 +5692,10 @@
         <v>910</v>
       </c>
       <c r="E106" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,10 +5706,16 @@
         <v>217</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5650,10 +5729,10 @@
         <v>910</v>
       </c>
       <c r="E108" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5667,10 +5746,10 @@
         <v>910</v>
       </c>
       <c r="E109" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5684,10 +5763,10 @@
         <v>910</v>
       </c>
       <c r="E110" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5701,10 +5780,10 @@
         <v>910</v>
       </c>
       <c r="E111" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5715,7 +5794,13 @@
         <v>227</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5774,7 +5859,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>7</v>
       </c>
@@ -5802,7 +5887,7 @@
         <v>910</v>
       </c>
       <c r="E118" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5819,10 +5904,10 @@
         <v>910</v>
       </c>
       <c r="E119" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>7</v>
       </c>
@@ -5850,7 +5935,7 @@
         <v>910</v>
       </c>
       <c r="E121" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5867,10 +5952,10 @@
         <v>910</v>
       </c>
       <c r="E122" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5983,7 @@
         <v>910</v>
       </c>
       <c r="E124" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -5915,10 +6000,10 @@
         <v>910</v>
       </c>
       <c r="E125" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +6031,7 @@
         <v>910</v>
       </c>
       <c r="E127" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5963,10 +6048,10 @@
         <v>910</v>
       </c>
       <c r="E128" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +6079,7 @@
         <v>910</v>
       </c>
       <c r="E130" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -6011,10 +6096,10 @@
         <v>910</v>
       </c>
       <c r="E131" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -6056,7 +6141,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>7</v>
       </c>
@@ -6067,7 +6152,7 @@
         <v>273</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -6420,7 +6505,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
@@ -6431,10 +6516,10 @@
         <v>325</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>7</v>
       </c>
@@ -6445,10 +6530,10 @@
         <v>327</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -6459,10 +6544,10 @@
         <v>329</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
@@ -6473,10 +6558,10 @@
         <v>331</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
@@ -6487,10 +6572,10 @@
         <v>331</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
@@ -6501,10 +6586,10 @@
         <v>331</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
@@ -6515,10 +6600,10 @@
         <v>331</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>7</v>
       </c>
@@ -6529,10 +6614,10 @@
         <v>331</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
@@ -6543,7 +6628,7 @@
         <v>337</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>1005</v>
+        <v>910</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -6551,10 +6636,10 @@
         <v>3</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>971</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>910</v>
@@ -6568,7 +6653,7 @@
         <v>338</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>910</v>
@@ -6582,7 +6667,7 @@
         <v>339</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>910</v>
@@ -6602,7 +6687,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -6613,13 +6698,13 @@
         <v>343</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F174" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
@@ -6630,7 +6715,13 @@
         <v>345</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -6646,8 +6737,11 @@
       <c r="D176" s="16" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -6658,10 +6752,13 @@
         <v>349</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
@@ -6672,10 +6769,13 @@
         <v>351</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>7</v>
       </c>
@@ -6686,10 +6786,13 @@
         <v>353</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
@@ -6700,10 +6803,16 @@
         <v>355</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
@@ -6714,10 +6823,13 @@
         <v>357</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>7</v>
       </c>
@@ -6728,10 +6840,13 @@
         <v>359</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>7</v>
       </c>
@@ -6742,10 +6857,13 @@
         <v>361</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -6756,10 +6874,13 @@
         <v>363</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>7</v>
       </c>
@@ -6770,10 +6891,16 @@
         <v>365</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>7</v>
       </c>
@@ -6784,10 +6911,13 @@
         <v>367</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -6798,10 +6928,13 @@
         <v>369</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>7</v>
       </c>
@@ -6812,10 +6945,13 @@
         <v>371</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>7</v>
       </c>
@@ -6826,10 +6962,13 @@
         <v>373</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>7</v>
       </c>
@@ -6840,10 +6979,16 @@
         <v>375</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>7</v>
       </c>
@@ -6854,10 +6999,13 @@
         <v>377</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>7</v>
       </c>
@@ -6868,10 +7016,13 @@
         <v>379</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -6882,10 +7033,13 @@
         <v>381</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>7</v>
       </c>
@@ -6896,10 +7050,13 @@
         <v>383</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
@@ -6910,10 +7067,16 @@
         <v>385</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -6924,10 +7087,13 @@
         <v>387</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
@@ -6938,10 +7104,13 @@
         <v>389</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>7</v>
       </c>
@@ -6952,10 +7121,13 @@
         <v>391</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
@@ -6966,10 +7138,13 @@
         <v>393</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -6980,7 +7155,13 @@
         <v>395</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,7 +7192,7 @@
         <v>910</v>
       </c>
       <c r="F202" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -7028,7 +7209,7 @@
         <v>910</v>
       </c>
       <c r="F203" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -7045,10 +7226,10 @@
         <v>910</v>
       </c>
       <c r="F204" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>7</v>
       </c>
@@ -7062,7 +7243,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>7</v>
       </c>
@@ -7073,10 +7254,13 @@
         <v>407</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>7</v>
       </c>
@@ -7087,10 +7271,13 @@
         <v>409</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -7104,7 +7291,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>7</v>
       </c>
@@ -7115,10 +7302,13 @@
         <v>413</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>7</v>
       </c>
@@ -7129,10 +7319,13 @@
         <v>415</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>7</v>
       </c>
@@ -7146,7 +7339,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>7</v>
       </c>
@@ -7157,10 +7350,13 @@
         <v>419</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>7</v>
       </c>
@@ -7171,10 +7367,13 @@
         <v>421</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>7</v>
       </c>
@@ -7188,7 +7387,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>7</v>
       </c>
@@ -7199,10 +7398,13 @@
         <v>425</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -7213,10 +7415,13 @@
         <v>427</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>7</v>
       </c>
@@ -7230,7 +7435,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -7241,10 +7446,13 @@
         <v>431</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>7</v>
       </c>
@@ -7255,10 +7463,13 @@
         <v>433</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>7</v>
       </c>
@@ -7300,7 +7511,7 @@
         <v>910</v>
       </c>
       <c r="F222" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7314,7 +7525,7 @@
         <v>442</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7328,7 +7539,7 @@
         <v>444</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7342,7 +7553,7 @@
         <v>446</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7356,7 +7567,7 @@
         <v>448</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7370,7 +7581,7 @@
         <v>450</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7384,7 +7595,7 @@
         <v>452</v>
       </c>
       <c r="D228" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7398,7 +7609,7 @@
         <v>454</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7412,7 +7623,7 @@
         <v>456</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7426,7 +7637,7 @@
         <v>458</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7440,7 +7651,7 @@
         <v>460</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -7454,7 +7665,7 @@
         <v>462</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7468,7 +7679,7 @@
         <v>464</v>
       </c>
       <c r="D234" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7482,7 +7693,7 @@
         <v>466</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7496,7 +7707,7 @@
         <v>468</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7510,7 +7721,7 @@
         <v>470</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7524,7 +7735,7 @@
         <v>472</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7749,7 @@
         <v>473</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7552,7 +7763,7 @@
         <v>475</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7566,7 +7777,7 @@
         <v>477</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7580,7 +7791,7 @@
         <v>479</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7594,7 +7805,7 @@
         <v>481</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="78.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7608,7 +7819,7 @@
         <v>479</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7622,7 +7833,7 @@
         <v>481</v>
       </c>
       <c r="D245" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7636,7 +7847,7 @@
         <v>479</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7650,7 +7861,7 @@
         <v>481</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7664,7 +7875,7 @@
         <v>479</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7678,7 +7889,7 @@
         <v>481</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7692,7 +7903,7 @@
         <v>479</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7706,7 +7917,7 @@
         <v>481</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="49.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7720,7 +7931,7 @@
         <v>491</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7734,7 +7945,7 @@
         <v>493</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7748,7 +7959,7 @@
         <v>495</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7762,7 +7973,7 @@
         <v>497</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7776,7 +7987,7 @@
         <v>499</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7790,7 +8001,7 @@
         <v>501</v>
       </c>
       <c r="D257" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7804,7 +8015,7 @@
         <v>503</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7818,7 +8029,7 @@
         <v>505</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7832,7 +8043,7 @@
         <v>507</v>
       </c>
       <c r="D260" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7846,7 +8057,7 @@
         <v>509</v>
       </c>
       <c r="D261" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7860,7 +8071,7 @@
         <v>511</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7874,7 +8085,7 @@
         <v>513</v>
       </c>
       <c r="D263" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7888,7 +8099,7 @@
         <v>515</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7902,7 +8113,7 @@
         <v>517</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7916,7 +8127,7 @@
         <v>519</v>
       </c>
       <c r="D266" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7930,7 +8141,7 @@
         <v>521</v>
       </c>
       <c r="D267" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7944,7 +8155,7 @@
         <v>523</v>
       </c>
       <c r="D268" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7958,7 +8169,7 @@
         <v>525</v>
       </c>
       <c r="D269" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7972,7 +8183,7 @@
         <v>527</v>
       </c>
       <c r="D270" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -7986,7 +8197,7 @@
         <v>529</v>
       </c>
       <c r="D271" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,7 +8214,7 @@
         <v>910</v>
       </c>
       <c r="F272" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -8065,10 +8276,10 @@
         <v>910</v>
       </c>
       <c r="F276" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>440</v>
       </c>
@@ -8096,13 +8307,13 @@
         <v>910</v>
       </c>
       <c r="E278" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F278" t="s">
         <v>1002</v>
       </c>
-      <c r="F278" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>440</v>
       </c>
@@ -8116,7 +8327,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>440</v>
       </c>
@@ -8130,7 +8341,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>440</v>
       </c>
@@ -8144,7 +8355,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>440</v>
       </c>
@@ -8158,7 +8369,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>440</v>
       </c>
@@ -8172,7 +8383,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>440</v>
       </c>
@@ -8186,7 +8397,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>440</v>
       </c>
@@ -8211,10 +8422,10 @@
         <v>559</v>
       </c>
       <c r="D286" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>440</v>
       </c>
@@ -8225,7 +8436,13 @@
         <v>561</v>
       </c>
       <c r="D287" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -8242,7 +8459,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>440</v>
       </c>
@@ -8256,7 +8473,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>440</v>
       </c>
@@ -8270,7 +8487,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>440</v>
       </c>
@@ -8284,7 +8501,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>440</v>
       </c>
@@ -8295,10 +8512,16 @@
         <v>571</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>440</v>
       </c>
@@ -8312,7 +8535,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>440</v>
       </c>
@@ -8326,7 +8549,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>440</v>
       </c>
@@ -8340,7 +8563,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>440</v>
       </c>
@@ -8354,7 +8577,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>440</v>
       </c>
@@ -8365,10 +8588,16 @@
         <v>581</v>
       </c>
       <c r="D297" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>440</v>
       </c>
@@ -8382,7 +8611,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>440</v>
       </c>
@@ -8396,7 +8625,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>440</v>
       </c>
@@ -8410,7 +8639,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>440</v>
       </c>
@@ -8424,7 +8653,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>440</v>
       </c>
@@ -8435,10 +8664,16 @@
         <v>591</v>
       </c>
       <c r="D302" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>440</v>
       </c>
@@ -8452,7 +8687,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>440</v>
       </c>
@@ -8466,7 +8701,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>440</v>
       </c>
@@ -8474,13 +8709,13 @@
         <v>596</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D305" s="16" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>440</v>
       </c>
@@ -8488,13 +8723,13 @@
         <v>597</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D306" s="16" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>440</v>
       </c>
@@ -8505,10 +8740,16 @@
         <v>599</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>440</v>
       </c>
@@ -8522,7 +8763,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>440</v>
       </c>
@@ -8536,7 +8777,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>440</v>
       </c>
@@ -8550,7 +8791,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>440</v>
       </c>
@@ -8564,7 +8805,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>440</v>
       </c>
@@ -8575,10 +8816,16 @@
         <v>609</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>440</v>
       </c>
@@ -8592,7 +8839,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>440</v>
       </c>
@@ -8606,7 +8853,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>440</v>
       </c>
@@ -8620,7 +8867,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>440</v>
       </c>
@@ -8634,7 +8881,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>440</v>
       </c>
@@ -8648,7 +8895,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -8662,7 +8909,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>440</v>
       </c>
@@ -8676,7 +8923,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>440</v>
       </c>
@@ -8690,7 +8937,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>440</v>
       </c>
@@ -8704,7 +8951,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>440</v>
       </c>
@@ -8718,7 +8965,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>440</v>
       </c>
@@ -8732,7 +8979,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>440</v>
       </c>
@@ -8746,7 +8993,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>440</v>
       </c>
@@ -8760,7 +9007,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>440</v>
       </c>
@@ -8774,7 +9021,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>440</v>
       </c>
@@ -8788,7 +9035,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>440</v>
       </c>
@@ -8802,7 +9049,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>440</v>
       </c>
@@ -8816,7 +9063,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>440</v>
       </c>
@@ -8830,7 +9077,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>440</v>
       </c>
@@ -8844,7 +9091,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>440</v>
       </c>
@@ -8858,7 +9105,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>440</v>
       </c>
@@ -8872,7 +9119,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>440</v>
       </c>
@@ -8886,7 +9133,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>440</v>
       </c>
@@ -8900,7 +9147,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>440</v>
       </c>
@@ -8911,13 +9158,13 @@
         <v>657</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F336" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>440</v>
       </c>
@@ -8928,10 +9175,10 @@
         <v>659</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>440</v>
       </c>
@@ -8942,10 +9189,10 @@
         <v>661</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>440</v>
       </c>
@@ -8956,10 +9203,10 @@
         <v>663</v>
       </c>
       <c r="D339" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>440</v>
       </c>
@@ -8970,10 +9217,10 @@
         <v>665</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>440</v>
       </c>
@@ -8984,10 +9231,10 @@
         <v>667</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>440</v>
       </c>
@@ -8998,10 +9245,10 @@
         <v>669</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>440</v>
       </c>
@@ -9012,10 +9259,10 @@
         <v>671</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>440</v>
       </c>
@@ -9026,10 +9273,10 @@
         <v>673</v>
       </c>
       <c r="D344" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>440</v>
       </c>
@@ -9040,10 +9287,10 @@
         <v>675</v>
       </c>
       <c r="D345" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>440</v>
       </c>
@@ -9054,10 +9301,10 @@
         <v>677</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>440</v>
       </c>
@@ -9068,10 +9315,10 @@
         <v>679</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>440</v>
       </c>
@@ -9082,10 +9329,10 @@
         <v>681</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>440</v>
       </c>
@@ -9096,10 +9343,10 @@
         <v>683</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>440</v>
       </c>
@@ -9110,10 +9357,10 @@
         <v>685</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>440</v>
       </c>
@@ -9124,10 +9371,10 @@
         <v>687</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>440</v>
       </c>
@@ -9138,10 +9385,10 @@
         <v>689</v>
       </c>
       <c r="D352" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>440</v>
       </c>
@@ -9152,10 +9399,10 @@
         <v>691</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>440</v>
       </c>
@@ -9166,10 +9413,10 @@
         <v>693</v>
       </c>
       <c r="D354" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>440</v>
       </c>
@@ -9180,10 +9427,10 @@
         <v>695</v>
       </c>
       <c r="D355" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>440</v>
       </c>
@@ -9194,10 +9441,10 @@
         <v>697</v>
       </c>
       <c r="D356" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="42.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>440</v>
       </c>
@@ -9208,10 +9455,10 @@
         <v>699</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>440</v>
       </c>
@@ -9222,10 +9469,10 @@
         <v>701</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="36.450000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>440</v>
       </c>
@@ -9236,10 +9483,10 @@
         <v>703</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>440</v>
       </c>
@@ -9250,10 +9497,10 @@
         <v>705</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>440</v>
       </c>
@@ -9264,10 +9511,10 @@
         <v>707</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>440</v>
       </c>
@@ -9278,10 +9525,10 @@
         <v>709</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>440</v>
       </c>
@@ -9292,10 +9539,10 @@
         <v>711</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>440</v>
       </c>
@@ -9306,10 +9553,10 @@
         <v>713</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>440</v>
       </c>
@@ -9320,10 +9567,10 @@
         <v>715</v>
       </c>
       <c r="D365" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>440</v>
       </c>
@@ -9334,10 +9581,10 @@
         <v>717</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>440</v>
       </c>
@@ -9348,10 +9595,10 @@
         <v>719</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>440</v>
       </c>
@@ -9362,10 +9609,10 @@
         <v>721</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>440</v>
       </c>
@@ -9376,10 +9623,10 @@
         <v>723</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>440</v>
       </c>
@@ -9390,10 +9637,10 @@
         <v>725</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>440</v>
       </c>
@@ -9404,10 +9651,10 @@
         <v>727</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>440</v>
       </c>
@@ -9418,10 +9665,10 @@
         <v>729</v>
       </c>
       <c r="D372" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>440</v>
       </c>
@@ -9432,10 +9679,10 @@
         <v>731</v>
       </c>
       <c r="D373" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>440</v>
       </c>
@@ -9446,10 +9693,10 @@
         <v>733</v>
       </c>
       <c r="D374" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>440</v>
       </c>
@@ -9460,10 +9707,10 @@
         <v>735</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>440</v>
       </c>
@@ -9474,10 +9721,10 @@
         <v>737</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>440</v>
       </c>
@@ -9488,10 +9735,10 @@
         <v>739</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>440</v>
       </c>
@@ -9502,10 +9749,10 @@
         <v>741</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>440</v>
       </c>
@@ -9516,10 +9763,10 @@
         <v>743</v>
       </c>
       <c r="D379" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>440</v>
       </c>
@@ -9530,10 +9777,10 @@
         <v>745</v>
       </c>
       <c r="D380" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>440</v>
       </c>
@@ -9544,10 +9791,10 @@
         <v>747</v>
       </c>
       <c r="D381" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>440</v>
       </c>
@@ -9558,10 +9805,10 @@
         <v>749</v>
       </c>
       <c r="D382" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>440</v>
       </c>
@@ -9572,10 +9819,10 @@
         <v>751</v>
       </c>
       <c r="D383" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>440</v>
       </c>
@@ -9586,10 +9833,10 @@
         <v>753</v>
       </c>
       <c r="D384" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>440</v>
       </c>
@@ -9600,10 +9847,10 @@
         <v>755</v>
       </c>
       <c r="D385" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>440</v>
       </c>
@@ -9614,10 +9861,10 @@
         <v>757</v>
       </c>
       <c r="D386" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>440</v>
       </c>
@@ -9628,10 +9875,10 @@
         <v>759</v>
       </c>
       <c r="D387" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>440</v>
       </c>
@@ -9642,10 +9889,10 @@
         <v>761</v>
       </c>
       <c r="D388" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>440</v>
       </c>
@@ -9656,10 +9903,10 @@
         <v>763</v>
       </c>
       <c r="D389" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>440</v>
       </c>
@@ -9670,10 +9917,10 @@
         <v>765</v>
       </c>
       <c r="D390" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>440</v>
       </c>
@@ -9684,10 +9931,10 @@
         <v>767</v>
       </c>
       <c r="D391" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>440</v>
       </c>
@@ -9698,10 +9945,10 @@
         <v>769</v>
       </c>
       <c r="D392" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>440</v>
       </c>
@@ -9712,10 +9959,10 @@
         <v>771</v>
       </c>
       <c r="D393" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>440</v>
       </c>
@@ -9726,10 +9973,10 @@
         <v>773</v>
       </c>
       <c r="D394" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>440</v>
       </c>
@@ -9740,10 +9987,10 @@
         <v>775</v>
       </c>
       <c r="D395" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>440</v>
       </c>
@@ -9754,10 +10001,10 @@
         <v>777</v>
       </c>
       <c r="D396" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>440</v>
       </c>
@@ -9768,10 +10015,10 @@
         <v>779</v>
       </c>
       <c r="D397" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>440</v>
       </c>
@@ -9782,10 +10029,10 @@
         <v>781</v>
       </c>
       <c r="D398" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>440</v>
       </c>
@@ -9796,10 +10043,10 @@
         <v>783</v>
       </c>
       <c r="D399" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" ht="59.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>440</v>
       </c>
@@ -9810,10 +10057,10 @@
         <v>785</v>
       </c>
       <c r="D400" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>440</v>
       </c>
@@ -9824,10 +10071,10 @@
         <v>787</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>440</v>
       </c>
@@ -9838,10 +10085,10 @@
         <v>789</v>
       </c>
       <c r="D402" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>440</v>
       </c>
@@ -9852,10 +10099,10 @@
         <v>791</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>440</v>
       </c>
@@ -9866,10 +10113,10 @@
         <v>793</v>
       </c>
       <c r="D404" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
@@ -9880,10 +10127,10 @@
         <v>795</v>
       </c>
       <c r="D405" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>440</v>
       </c>
@@ -9894,10 +10141,10 @@
         <v>797</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>440</v>
       </c>
@@ -9908,10 +10155,10 @@
         <v>799</v>
       </c>
       <c r="D407" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>440</v>
       </c>
@@ -9922,10 +10169,10 @@
         <v>801</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>440</v>
       </c>
@@ -9936,10 +10183,10 @@
         <v>803</v>
       </c>
       <c r="D409" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>440</v>
       </c>
@@ -9950,10 +10197,10 @@
         <v>805</v>
       </c>
       <c r="D410" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>440</v>
       </c>
@@ -9964,10 +10211,10 @@
         <v>807</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>440</v>
       </c>
@@ -9978,10 +10225,10 @@
         <v>809</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>440</v>
       </c>
@@ -9992,10 +10239,10 @@
         <v>811</v>
       </c>
       <c r="D413" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>440</v>
       </c>
@@ -10006,10 +10253,10 @@
         <v>813</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>440</v>
       </c>
@@ -10020,10 +10267,10 @@
         <v>815</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>440</v>
       </c>
@@ -10034,10 +10281,10 @@
         <v>817</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>440</v>
       </c>
@@ -10048,10 +10295,10 @@
         <v>819</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>440</v>
       </c>
@@ -10062,10 +10309,10 @@
         <v>821</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>440</v>
       </c>
@@ -10076,10 +10323,10 @@
         <v>823</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>440</v>
       </c>
@@ -10090,10 +10337,10 @@
         <v>825</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>440</v>
       </c>
@@ -10104,10 +10351,10 @@
         <v>827</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>440</v>
       </c>
@@ -10118,10 +10365,10 @@
         <v>829</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>440</v>
       </c>
@@ -10132,10 +10379,10 @@
         <v>831</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>832</v>
       </c>
@@ -10149,7 +10396,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>832</v>
       </c>
@@ -10163,7 +10410,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>832</v>
       </c>
@@ -10177,7 +10424,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>832</v>
       </c>
@@ -10188,13 +10435,13 @@
         <v>840</v>
       </c>
       <c r="D427" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="F427" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>832</v>
       </c>
@@ -10208,7 +10455,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>832</v>
       </c>
@@ -10222,7 +10469,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
         <v>832</v>
       </c>
@@ -10236,7 +10483,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>832</v>
       </c>
@@ -10250,7 +10497,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>832</v>
       </c>
@@ -10278,7 +10525,7 @@
         <v>910</v>
       </c>
       <c r="F433" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -10295,10 +10542,10 @@
         <v>910</v>
       </c>
       <c r="F434" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>832</v>
       </c>
@@ -10312,7 +10559,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
         <v>832</v>
       </c>
@@ -10326,7 +10573,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
@@ -10340,7 +10587,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>832</v>
       </c>
@@ -10354,7 +10601,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>832</v>
       </c>
@@ -10396,10 +10643,10 @@
         <v>910</v>
       </c>
       <c r="E441" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F441" t="s">
         <v>1002</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10430,7 +10677,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>832</v>
       </c>
@@ -10444,7 +10691,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>832</v>
       </c>
@@ -10458,7 +10705,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="446" spans="1:6" s="9" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>832</v>
       </c>
@@ -10472,7 +10719,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>832</v>
       </c>
@@ -10486,7 +10733,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>832</v>
       </c>
@@ -10500,7 +10747,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>832</v>
       </c>
@@ -10514,7 +10761,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>832</v>
       </c>
@@ -10528,7 +10775,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="45.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>832</v>
       </c>
@@ -10598,7 +10845,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>889</v>
       </c>
@@ -10626,7 +10873,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>889</v>
       </c>
@@ -10640,7 +10887,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>889</v>
       </c>
@@ -10654,7 +10901,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="32.700000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="32.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>889</v>
       </c>
@@ -10668,7 +10915,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="23.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="23.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>889</v>
       </c>
@@ -10682,7 +10929,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>889</v>
       </c>
@@ -10710,7 +10957,7 @@
         <v>910</v>
       </c>
       <c r="F463" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10727,7 +10974,7 @@
         <v>910</v>
       </c>
       <c r="F464" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -10741,7 +10988,7 @@
         <v>905</v>
       </c>
       <c r="D465" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10758,32 +11005,53 @@
         <v>910</v>
       </c>
       <c r="E466" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F466" t="s">
-        <v>975</v>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A467" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D467" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F466" xr:uid="{365A42DD-2054-40BA-A16F-280F201D1D70}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter val="**"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:F468" xr:uid="{365A42DD-2054-40BA-A16F-280F201D1D70}">
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
+        <filter val="No"/>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="D467:D468">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D467)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D467)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:E466">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E466">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10991,16 +11259,14 @@
   </sheetPr>
   <dimension ref="B2:J70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -11010,7 +11276,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.5">
@@ -11018,75 +11284,75 @@
     </row>
     <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>924</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>925</v>
-      </c>
       <c r="E11" s="22" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F13" s="20">
         <v>5</v>
@@ -11094,67 +11360,67 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F14" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" t="s">
+        <v>925</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>1010</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="D16" t="s">
+        <v>925</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F16" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F17" s="20">
         <v>6</v>
@@ -11162,33 +11428,33 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E19" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F19" s="20">
         <v>5</v>
@@ -11196,16 +11462,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F20" s="20">
         <v>6</v>
@@ -11213,16 +11479,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>6</v>
@@ -11230,33 +11496,33 @@
     </row>
     <row r="22" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C22" s="26">
         <v>11</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C23" s="26">
         <v>12</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F23" s="27">
         <v>5</v>
@@ -11264,16 +11530,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>926</v>
+        <v>1040</v>
       </c>
       <c r="E24" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="F24" s="20">
         <v>6</v>
@@ -11287,192 +11553,188 @@
     </row>
     <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
+      <c r="B31" t="s">
         <v>871</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" t="s">
+        <v>980</v>
+      </c>
+      <c r="D31" t="s">
+        <v>845</v>
+      </c>
+      <c r="E31" t="s">
+        <v>849</v>
+      </c>
+      <c r="F31" t="s">
+        <v>847</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>977</v>
+      </c>
+      <c r="C32" t="s">
         <v>981</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>902</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>853</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>851</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
+      <c r="D32" t="s">
+        <v>987</v>
+      </c>
+      <c r="E32" t="s">
+        <v>987</v>
+      </c>
+      <c r="F32" t="s">
+        <v>987</v>
+      </c>
+      <c r="G32" t="s">
+        <v>987</v>
+      </c>
+      <c r="J32" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>975</v>
+      </c>
+      <c r="C33" t="s">
+        <v>982</v>
+      </c>
+      <c r="D33" t="s">
+        <v>987</v>
+      </c>
+      <c r="F33" t="s">
+        <v>987</v>
+      </c>
+      <c r="H33" t="s">
+        <v>987</v>
+      </c>
+      <c r="I33" t="s">
+        <v>987</v>
+      </c>
+      <c r="J33" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>976</v>
+      </c>
+      <c r="C34" t="s">
+        <v>983</v>
+      </c>
+      <c r="D34" t="s">
+        <v>988</v>
+      </c>
+      <c r="E34" t="s">
+        <v>987</v>
+      </c>
+      <c r="F34" t="s">
+        <v>987</v>
+      </c>
+      <c r="G34" t="s">
+        <v>987</v>
+      </c>
+      <c r="I34" t="s">
+        <v>987</v>
+      </c>
+      <c r="J34" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>978</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>982</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="G32" t="s">
-        <v>988</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
-        <v>976</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>983</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="28" t="s">
-        <v>977</v>
-      </c>
-      <c r="C34" s="28" t="s">
+      <c r="C35" t="s">
+        <v>985</v>
+      </c>
+      <c r="D35" t="s">
+        <v>987</v>
+      </c>
+      <c r="E35" t="s">
+        <v>987</v>
+      </c>
+      <c r="F35" t="s">
+        <v>987</v>
+      </c>
+      <c r="G35" t="s">
+        <v>987</v>
+      </c>
+      <c r="H35" t="s">
+        <v>987</v>
+      </c>
+      <c r="I35" t="s">
+        <v>987</v>
+      </c>
+      <c r="J35" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>979</v>
+      </c>
+      <c r="C36" t="s">
         <v>984</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>989</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="G34" t="s">
-        <v>988</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>979</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>986</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="G35" t="s">
-        <v>988</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
-        <v>980</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>985</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="H36" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="J36" s="28" t="s">
-        <v>988</v>
+      <c r="D36" t="s">
+        <v>987</v>
+      </c>
+      <c r="H36" t="s">
+        <v>987</v>
+      </c>
+      <c r="I36" t="s">
+        <v>987</v>
+      </c>
+      <c r="J36" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C43" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>928</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>929</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>871</v>
@@ -11486,10 +11748,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E44" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
@@ -11500,10 +11762,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E45" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
@@ -11514,10 +11776,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E46" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -11528,10 +11790,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E47" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -11542,10 +11804,10 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E48" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -11556,10 +11818,10 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E49" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
@@ -11570,10 +11832,10 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E50" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -11584,10 +11846,10 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E51" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -11598,48 +11860,48 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="22" t="s">
         <v>924</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -11647,53 +11909,53 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B67" s="21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C68" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C69" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C70" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
